--- a/GIL.xlsx
+++ b/GIL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958187CE-65FD-496E-9396-228621191BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C39CF52-0E81-4474-B493-A829B19F7528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{8FF81416-71A4-47E4-A621-F1E8D8B5CE92}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{8FF81416-71A4-47E4-A621-F1E8D8B5CE92}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>Gildan Activewear</t>
   </si>
@@ -164,6 +164,18 @@
   <si>
     <t>EPS</t>
   </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
 </sst>
 </file>
 
@@ -218,7 +230,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -227,6 +239,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -564,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{274EE32F-57FA-4DDA-8E39-E87CCA06F538}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,7 +599,7 @@
         <v>4</v>
       </c>
       <c r="I2">
-        <v>52.1</v>
+        <v>51.16</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -594,10 +607,10 @@
         <v>5</v>
       </c>
       <c r="I3" s="2">
-        <v>160.68199999999999</v>
+        <v>151.875</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -609,7 +622,7 @@
       </c>
       <c r="I4" s="2">
         <f>+I2*I3</f>
-        <v>8371.5321999999996</v>
+        <v>7769.9249999999993</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -620,10 +633,10 @@
         <v>7</v>
       </c>
       <c r="I5" s="2">
-        <v>78.48</v>
+        <v>75.495999999999995</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -631,11 +644,10 @@
         <v>8</v>
       </c>
       <c r="I6" s="2">
-        <f>300+1179</f>
-        <v>1479</v>
+        <v>1803.6</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -644,7 +656,7 @@
       </c>
       <c r="I7" s="2">
         <f>+I4+I6-I5</f>
-        <v>9772.0522000000001</v>
+        <v>9498.0290000000005</v>
       </c>
     </row>
   </sheetData>
@@ -657,13 +669,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0151822-DCFA-4201-859E-6001F7813102}">
-  <dimension ref="A1:BQ185"/>
+  <dimension ref="A1:BV185"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,12 +684,12 @@
     <col min="2" max="2" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:74" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
@@ -702,40 +714,59 @@
       <c r="J2" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="K2" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="L2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="4"/>
+      <c r="Q2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:74" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>26</v>
       </c>
       <c r="E3">
         <v>744.4</v>
       </c>
+      <c r="G3">
+        <v>592.1</v>
+      </c>
       <c r="I3">
         <v>788.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>647.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:74" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>27</v>
       </c>
@@ -745,13 +776,17 @@
         <v>125.5</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2">
+        <v>103.7</v>
+      </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2">
         <v>102.8</v>
       </c>
       <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="K4" s="2">
+        <v>64.3</v>
+      </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -810,8 +845,13 @@
       <c r="BO4" s="2"/>
       <c r="BP4" s="2"/>
       <c r="BQ4" s="2"/>
-    </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="BR4" s="2"/>
+      <c r="BS4" s="2"/>
+      <c r="BT4" s="2"/>
+      <c r="BU4" s="2"/>
+      <c r="BV4" s="2"/>
+    </row>
+    <row r="5" spans="1:74" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>28</v>
       </c>
@@ -821,13 +861,17 @@
         <v>787.7</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2">
+        <v>618</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2">
         <v>798.8</v>
       </c>
       <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="K5" s="2">
+        <v>632.6</v>
+      </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -886,8 +930,13 @@
       <c r="BO5" s="2"/>
       <c r="BP5" s="2"/>
       <c r="BQ5" s="2"/>
-    </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="BR5" s="2"/>
+      <c r="BS5" s="2"/>
+      <c r="BT5" s="2"/>
+      <c r="BU5" s="2"/>
+      <c r="BV5" s="2"/>
+    </row>
+    <row r="6" spans="1:74" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>29</v>
       </c>
@@ -897,13 +946,17 @@
         <v>28.9</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2">
+        <v>25.3</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2">
         <v>28.2</v>
       </c>
       <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="K6" s="2">
+        <v>27.9</v>
+      </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -962,8 +1015,13 @@
       <c r="BO6" s="2"/>
       <c r="BP6" s="2"/>
       <c r="BQ6" s="2"/>
-    </row>
-    <row r="7" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="BR6" s="2"/>
+      <c r="BS6" s="2"/>
+      <c r="BT6" s="2"/>
+      <c r="BU6" s="2"/>
+      <c r="BV6" s="2"/>
+    </row>
+    <row r="7" spans="1:74" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>30</v>
       </c>
@@ -973,13 +1031,17 @@
         <v>53.3</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2">
+        <v>52.5</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2">
         <v>64.099999999999994</v>
       </c>
       <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="K7" s="2">
+        <v>51.2</v>
+      </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1038,28 +1100,45 @@
       <c r="BO7" s="2"/>
       <c r="BP7" s="2"/>
       <c r="BQ7" s="2"/>
-    </row>
-    <row r="8" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="BR7" s="2"/>
+      <c r="BS7" s="2"/>
+      <c r="BT7" s="2"/>
+      <c r="BU7" s="2"/>
+      <c r="BV7" s="2"/>
+    </row>
+    <row r="8" spans="1:74" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5">
+        <v>840.4</v>
+      </c>
       <c r="E8" s="5">
         <v>869.90099999999995</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="F8" s="5">
+        <v>782.7</v>
+      </c>
+      <c r="G8" s="5">
+        <v>695.79600000000005</v>
+      </c>
+      <c r="H8" s="5">
+        <v>862.2</v>
+      </c>
       <c r="I8" s="5">
         <v>891.10599999999999</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+      <c r="J8" s="5">
+        <v>821.5</v>
+      </c>
+      <c r="K8" s="5">
+        <v>711.67200000000003</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
@@ -1114,8 +1193,13 @@
       <c r="BO8" s="2"/>
       <c r="BP8" s="2"/>
       <c r="BQ8" s="2"/>
-    </row>
-    <row r="9" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="BR8" s="2"/>
+      <c r="BS8" s="2"/>
+      <c r="BT8" s="2"/>
+      <c r="BU8" s="2"/>
+      <c r="BV8" s="2"/>
+    </row>
+    <row r="9" spans="1:74" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>32</v>
       </c>
@@ -1125,13 +1209,17 @@
         <v>630.66399999999999</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2">
+        <v>484.66300000000001</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2">
         <v>613.49900000000002</v>
       </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="K9" s="2">
+        <v>489.73500000000001</v>
+      </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1190,8 +1278,13 @@
       <c r="BO9" s="2"/>
       <c r="BP9" s="2"/>
       <c r="BQ9" s="2"/>
-    </row>
-    <row r="10" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="BR9" s="2"/>
+      <c r="BS9" s="2"/>
+      <c r="BT9" s="2"/>
+      <c r="BU9" s="2"/>
+      <c r="BV9" s="2"/>
+    </row>
+    <row r="10" spans="1:74" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>33</v>
       </c>
@@ -1201,7 +1294,7 @@
       </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>840.4</v>
       </c>
       <c r="E10" s="2">
         <f>+E8-E9</f>
@@ -1209,28 +1302,40 @@
       </c>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>782.7</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>211.13300000000004</v>
       </c>
       <c r="H10" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>862.2</v>
       </c>
       <c r="I10" s="2">
         <f>+I8-I9</f>
         <v>277.60699999999997</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" ref="J10" si="1">+J8-J9</f>
+        <f t="shared" ref="J10:N10" si="1">+J8-J9</f>
+        <v>821.5</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="1"/>
+        <v>221.93700000000001</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
+      <c r="M10" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -1286,8 +1391,13 @@
       <c r="BO10" s="2"/>
       <c r="BP10" s="2"/>
       <c r="BQ10" s="2"/>
-    </row>
-    <row r="11" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="BR10" s="2"/>
+      <c r="BS10" s="2"/>
+      <c r="BT10" s="2"/>
+      <c r="BU10" s="2"/>
+      <c r="BV10" s="2"/>
+    </row>
+    <row r="11" spans="1:74" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>34</v>
       </c>
@@ -1297,13 +1407,17 @@
         <v>82.212999999999994</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="G11" s="2">
+        <v>105.238</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2">
         <v>83.605000000000004</v>
       </c>
       <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="K11" s="2">
+        <v>87.32</v>
+      </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1362,8 +1476,13 @@
       <c r="BO11" s="2"/>
       <c r="BP11" s="2"/>
       <c r="BQ11" s="2"/>
-    </row>
-    <row r="12" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="BR11" s="2"/>
+      <c r="BS11" s="2"/>
+      <c r="BT11" s="2"/>
+      <c r="BU11" s="2"/>
+      <c r="BV11" s="2"/>
+    </row>
+    <row r="12" spans="1:74" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>35</v>
       </c>
@@ -1373,13 +1492,17 @@
         <v>2.0059999999999998</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="G12" s="2">
+        <v>0.79800000000000004</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2">
         <v>1.0569999999999999</v>
       </c>
       <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="K12" s="2">
+        <v>4.9710000000000001</v>
+      </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1438,8 +1561,13 @@
       <c r="BO12" s="2"/>
       <c r="BP12" s="2"/>
       <c r="BQ12" s="2"/>
-    </row>
-    <row r="13" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="BR12" s="2"/>
+      <c r="BS12" s="2"/>
+      <c r="BT12" s="2"/>
+      <c r="BU12" s="2"/>
+      <c r="BV12" s="2"/>
+    </row>
+    <row r="13" spans="1:74" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>36</v>
       </c>
@@ -1449,7 +1577,7 @@
       </c>
       <c r="D13" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>840.4</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
@@ -1457,28 +1585,40 @@
       </c>
       <c r="F13" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>782.7</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>105.09700000000004</v>
       </c>
       <c r="H13" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>862.2</v>
       </c>
       <c r="I13" s="2">
         <f>+I10-SUM(I11:I12)</f>
         <v>192.94499999999996</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" ref="J13" si="3">+J10-SUM(J11:J12)</f>
+        <f t="shared" ref="J13:N13" si="3">+J10-SUM(J11:J12)</f>
+        <v>821.5</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="3"/>
+        <v>129.64600000000002</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="M13" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -1534,8 +1674,13 @@
       <c r="BO13" s="2"/>
       <c r="BP13" s="2"/>
       <c r="BQ13" s="2"/>
-    </row>
-    <row r="14" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="BR13" s="2"/>
+      <c r="BS13" s="2"/>
+      <c r="BT13" s="2"/>
+      <c r="BU13" s="2"/>
+      <c r="BV13" s="2"/>
+    </row>
+    <row r="14" spans="1:74" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>37</v>
       </c>
@@ -1545,13 +1690,17 @@
         <v>20.748000000000001</v>
       </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="G14" s="2">
+        <v>22.725999999999999</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2">
         <v>30.216999999999999</v>
       </c>
       <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="K14" s="2">
+        <v>29.864000000000001</v>
+      </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1610,8 +1759,13 @@
       <c r="BO14" s="2"/>
       <c r="BP14" s="2"/>
       <c r="BQ14" s="2"/>
-    </row>
-    <row r="15" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="BR14" s="2"/>
+      <c r="BS14" s="2"/>
+      <c r="BT14" s="2"/>
+      <c r="BU14" s="2"/>
+      <c r="BV14" s="2"/>
+    </row>
+    <row r="15" spans="1:74" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>38</v>
       </c>
@@ -1621,7 +1775,7 @@
       </c>
       <c r="D15" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>840.4</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="4"/>
@@ -1629,28 +1783,40 @@
       </c>
       <c r="F15" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>782.7</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>82.371000000000038</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>862.2</v>
       </c>
       <c r="I15" s="2">
         <f>+I13-I14</f>
         <v>162.72799999999995</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" ref="J15" si="5">+J13-J14</f>
+        <f t="shared" ref="J15:N15" si="5">+J13-J14</f>
+        <v>821.5</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="5"/>
+        <v>99.782000000000011</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+      <c r="M15" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -1706,8 +1872,13 @@
       <c r="BO15" s="2"/>
       <c r="BP15" s="2"/>
       <c r="BQ15" s="2"/>
-    </row>
-    <row r="16" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="BR15" s="2"/>
+      <c r="BS15" s="2"/>
+      <c r="BT15" s="2"/>
+      <c r="BU15" s="2"/>
+      <c r="BV15" s="2"/>
+    </row>
+    <row r="16" spans="1:74" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>39</v>
       </c>
@@ -1717,13 +1888,17 @@
         <v>6.9029999999999996</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="G16" s="2">
+        <v>3.7040000000000002</v>
+      </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2">
         <v>31.254000000000001</v>
       </c>
       <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+      <c r="K16" s="2">
+        <v>15.1</v>
+      </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -1782,8 +1957,13 @@
       <c r="BO16" s="2"/>
       <c r="BP16" s="2"/>
       <c r="BQ16" s="2"/>
-    </row>
-    <row r="17" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="BR16" s="2"/>
+      <c r="BS16" s="2"/>
+      <c r="BT16" s="2"/>
+      <c r="BU16" s="2"/>
+      <c r="BV16" s="2"/>
+    </row>
+    <row r="17" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>40</v>
       </c>
@@ -1793,7 +1973,7 @@
       </c>
       <c r="D17" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>840.4</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="6"/>
@@ -1801,28 +1981,40 @@
       </c>
       <c r="F17" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>782.7</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>78.667000000000044</v>
       </c>
       <c r="H17" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>862.2</v>
       </c>
       <c r="I17" s="2">
         <f>+I15-I16</f>
         <v>131.47399999999996</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" ref="J17" si="7">+J15-J16</f>
+        <f t="shared" ref="J17:N17" si="7">+J15-J16</f>
+        <v>821.5</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="7"/>
+        <v>84.682000000000016</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+      <c r="M17" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
@@ -1878,8 +2070,13 @@
       <c r="BO17" s="2"/>
       <c r="BP17" s="2"/>
       <c r="BQ17" s="2"/>
-    </row>
-    <row r="18" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="BR17" s="2"/>
+      <c r="BS17" s="2"/>
+      <c r="BT17" s="2"/>
+      <c r="BU17" s="2"/>
+      <c r="BV17" s="2"/>
+    </row>
+    <row r="18" spans="2:74" x14ac:dyDescent="0.25">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1947,47 +2144,64 @@
       <c r="BO18" s="2"/>
       <c r="BP18" s="2"/>
       <c r="BQ18" s="2"/>
-    </row>
-    <row r="19" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="BR18" s="2"/>
+      <c r="BS18" s="2"/>
+      <c r="BT18" s="2"/>
+      <c r="BU18" s="2"/>
+      <c r="BV18" s="2"/>
+    </row>
+    <row r="19" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="2" t="e">
-        <f t="shared" ref="C19:H19" si="8">+C17/C20</f>
+      <c r="C19" s="6" t="e">
+        <f t="shared" ref="C19:N19" si="8">+C17/C20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D19" s="2" t="e">
+      <c r="D19" s="6" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="6">
         <f t="shared" si="8"/>
         <v>0.72744978210832323</v>
       </c>
-      <c r="F19" s="2" t="e">
+      <c r="F19" s="6" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G19" s="2" t="e">
+      <c r="G19" s="6">
+        <f t="shared" si="8"/>
+        <v>0.46554856578114207</v>
+      </c>
+      <c r="H19" s="6" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="2" t="e">
+      <c r="I19" s="6">
+        <f t="shared" si="8"/>
+        <v>0.81822481671873626</v>
+      </c>
+      <c r="J19" s="6" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="2">
-        <f>+I17/I20</f>
-        <v>0.81822481671873626</v>
-      </c>
-      <c r="J19" s="2" t="e">
-        <f t="shared" ref="J19" si="9">+J17/J20</f>
+      <c r="K19" s="6">
+        <f t="shared" ref="J19:N19" si="9">+K17/K20</f>
+        <v>0.55757695473251034</v>
+      </c>
+      <c r="L19" s="6" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="M19" s="6" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N19" s="6" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
@@ -2043,8 +2257,13 @@
       <c r="BO19" s="2"/>
       <c r="BP19" s="2"/>
       <c r="BQ19" s="2"/>
-    </row>
-    <row r="20" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="BR19" s="2"/>
+      <c r="BS19" s="2"/>
+      <c r="BT19" s="2"/>
+      <c r="BU19" s="2"/>
+      <c r="BV19" s="2"/>
+    </row>
+    <row r="20" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>5</v>
       </c>
@@ -2054,13 +2273,17 @@
         <v>175.08699999999999</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="G20" s="2">
+        <v>168.977</v>
+      </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2">
         <v>160.68199999999999</v>
       </c>
       <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
+      <c r="K20" s="2">
+        <v>151.875</v>
+      </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2119,8 +2342,13 @@
       <c r="BO20" s="2"/>
       <c r="BP20" s="2"/>
       <c r="BQ20" s="2"/>
-    </row>
-    <row r="21" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="BR20" s="2"/>
+      <c r="BS20" s="2"/>
+      <c r="BT20" s="2"/>
+      <c r="BU20" s="2"/>
+      <c r="BV20" s="2"/>
+    </row>
+    <row r="21" spans="2:74" x14ac:dyDescent="0.25">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -2188,8 +2416,13 @@
       <c r="BO21" s="2"/>
       <c r="BP21" s="2"/>
       <c r="BQ21" s="2"/>
-    </row>
-    <row r="22" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="BR21" s="2"/>
+      <c r="BS21" s="2"/>
+      <c r="BT21" s="2"/>
+      <c r="BU21" s="2"/>
+      <c r="BV21" s="2"/>
+    </row>
+    <row r="22" spans="2:74" x14ac:dyDescent="0.25">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -2257,8 +2490,13 @@
       <c r="BO22" s="2"/>
       <c r="BP22" s="2"/>
       <c r="BQ22" s="2"/>
-    </row>
-    <row r="23" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="BR22" s="2"/>
+      <c r="BS22" s="2"/>
+      <c r="BT22" s="2"/>
+      <c r="BU22" s="2"/>
+      <c r="BV22" s="2"/>
+    </row>
+    <row r="23" spans="2:74" x14ac:dyDescent="0.25">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -2326,8 +2564,13 @@
       <c r="BO23" s="2"/>
       <c r="BP23" s="2"/>
       <c r="BQ23" s="2"/>
-    </row>
-    <row r="24" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="BR23" s="2"/>
+      <c r="BS23" s="2"/>
+      <c r="BT23" s="2"/>
+      <c r="BU23" s="2"/>
+      <c r="BV23" s="2"/>
+    </row>
+    <row r="24" spans="2:74" x14ac:dyDescent="0.25">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -2395,8 +2638,13 @@
       <c r="BO24" s="2"/>
       <c r="BP24" s="2"/>
       <c r="BQ24" s="2"/>
-    </row>
-    <row r="25" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="BR24" s="2"/>
+      <c r="BS24" s="2"/>
+      <c r="BT24" s="2"/>
+      <c r="BU24" s="2"/>
+      <c r="BV24" s="2"/>
+    </row>
+    <row r="25" spans="2:74" x14ac:dyDescent="0.25">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -2464,8 +2712,13 @@
       <c r="BO25" s="2"/>
       <c r="BP25" s="2"/>
       <c r="BQ25" s="2"/>
-    </row>
-    <row r="26" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="BR25" s="2"/>
+      <c r="BS25" s="2"/>
+      <c r="BT25" s="2"/>
+      <c r="BU25" s="2"/>
+      <c r="BV25" s="2"/>
+    </row>
+    <row r="26" spans="2:74" x14ac:dyDescent="0.25">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -2533,8 +2786,13 @@
       <c r="BO26" s="2"/>
       <c r="BP26" s="2"/>
       <c r="BQ26" s="2"/>
-    </row>
-    <row r="27" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="BR26" s="2"/>
+      <c r="BS26" s="2"/>
+      <c r="BT26" s="2"/>
+      <c r="BU26" s="2"/>
+      <c r="BV26" s="2"/>
+    </row>
+    <row r="27" spans="2:74" x14ac:dyDescent="0.25">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -2602,8 +2860,13 @@
       <c r="BO27" s="2"/>
       <c r="BP27" s="2"/>
       <c r="BQ27" s="2"/>
-    </row>
-    <row r="28" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="BR27" s="2"/>
+      <c r="BS27" s="2"/>
+      <c r="BT27" s="2"/>
+      <c r="BU27" s="2"/>
+      <c r="BV27" s="2"/>
+    </row>
+    <row r="28" spans="2:74" x14ac:dyDescent="0.25">
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -2671,8 +2934,13 @@
       <c r="BO28" s="2"/>
       <c r="BP28" s="2"/>
       <c r="BQ28" s="2"/>
-    </row>
-    <row r="29" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="BR28" s="2"/>
+      <c r="BS28" s="2"/>
+      <c r="BT28" s="2"/>
+      <c r="BU28" s="2"/>
+      <c r="BV28" s="2"/>
+    </row>
+    <row r="29" spans="2:74" x14ac:dyDescent="0.25">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -2740,8 +3008,13 @@
       <c r="BO29" s="2"/>
       <c r="BP29" s="2"/>
       <c r="BQ29" s="2"/>
-    </row>
-    <row r="30" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="BR29" s="2"/>
+      <c r="BS29" s="2"/>
+      <c r="BT29" s="2"/>
+      <c r="BU29" s="2"/>
+      <c r="BV29" s="2"/>
+    </row>
+    <row r="30" spans="2:74" x14ac:dyDescent="0.25">
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -2809,8 +3082,13 @@
       <c r="BO30" s="2"/>
       <c r="BP30" s="2"/>
       <c r="BQ30" s="2"/>
-    </row>
-    <row r="31" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="BR30" s="2"/>
+      <c r="BS30" s="2"/>
+      <c r="BT30" s="2"/>
+      <c r="BU30" s="2"/>
+      <c r="BV30" s="2"/>
+    </row>
+    <row r="31" spans="2:74" x14ac:dyDescent="0.25">
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -2878,8 +3156,13 @@
       <c r="BO31" s="2"/>
       <c r="BP31" s="2"/>
       <c r="BQ31" s="2"/>
-    </row>
-    <row r="32" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="BR31" s="2"/>
+      <c r="BS31" s="2"/>
+      <c r="BT31" s="2"/>
+      <c r="BU31" s="2"/>
+      <c r="BV31" s="2"/>
+    </row>
+    <row r="32" spans="2:74" x14ac:dyDescent="0.25">
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -2947,8 +3230,13 @@
       <c r="BO32" s="2"/>
       <c r="BP32" s="2"/>
       <c r="BQ32" s="2"/>
-    </row>
-    <row r="33" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR32" s="2"/>
+      <c r="BS32" s="2"/>
+      <c r="BT32" s="2"/>
+      <c r="BU32" s="2"/>
+      <c r="BV32" s="2"/>
+    </row>
+    <row r="33" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -3016,8 +3304,13 @@
       <c r="BO33" s="2"/>
       <c r="BP33" s="2"/>
       <c r="BQ33" s="2"/>
-    </row>
-    <row r="34" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR33" s="2"/>
+      <c r="BS33" s="2"/>
+      <c r="BT33" s="2"/>
+      <c r="BU33" s="2"/>
+      <c r="BV33" s="2"/>
+    </row>
+    <row r="34" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -3085,8 +3378,13 @@
       <c r="BO34" s="2"/>
       <c r="BP34" s="2"/>
       <c r="BQ34" s="2"/>
-    </row>
-    <row r="35" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR34" s="2"/>
+      <c r="BS34" s="2"/>
+      <c r="BT34" s="2"/>
+      <c r="BU34" s="2"/>
+      <c r="BV34" s="2"/>
+    </row>
+    <row r="35" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -3154,8 +3452,13 @@
       <c r="BO35" s="2"/>
       <c r="BP35" s="2"/>
       <c r="BQ35" s="2"/>
-    </row>
-    <row r="36" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR35" s="2"/>
+      <c r="BS35" s="2"/>
+      <c r="BT35" s="2"/>
+      <c r="BU35" s="2"/>
+      <c r="BV35" s="2"/>
+    </row>
+    <row r="36" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -3223,8 +3526,13 @@
       <c r="BO36" s="2"/>
       <c r="BP36" s="2"/>
       <c r="BQ36" s="2"/>
-    </row>
-    <row r="37" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR36" s="2"/>
+      <c r="BS36" s="2"/>
+      <c r="BT36" s="2"/>
+      <c r="BU36" s="2"/>
+      <c r="BV36" s="2"/>
+    </row>
+    <row r="37" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -3292,8 +3600,13 @@
       <c r="BO37" s="2"/>
       <c r="BP37" s="2"/>
       <c r="BQ37" s="2"/>
-    </row>
-    <row r="38" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR37" s="2"/>
+      <c r="BS37" s="2"/>
+      <c r="BT37" s="2"/>
+      <c r="BU37" s="2"/>
+      <c r="BV37" s="2"/>
+    </row>
+    <row r="38" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -3361,8 +3674,13 @@
       <c r="BO38" s="2"/>
       <c r="BP38" s="2"/>
       <c r="BQ38" s="2"/>
-    </row>
-    <row r="39" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR38" s="2"/>
+      <c r="BS38" s="2"/>
+      <c r="BT38" s="2"/>
+      <c r="BU38" s="2"/>
+      <c r="BV38" s="2"/>
+    </row>
+    <row r="39" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -3430,8 +3748,13 @@
       <c r="BO39" s="2"/>
       <c r="BP39" s="2"/>
       <c r="BQ39" s="2"/>
-    </row>
-    <row r="40" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR39" s="2"/>
+      <c r="BS39" s="2"/>
+      <c r="BT39" s="2"/>
+      <c r="BU39" s="2"/>
+      <c r="BV39" s="2"/>
+    </row>
+    <row r="40" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -3499,8 +3822,13 @@
       <c r="BO40" s="2"/>
       <c r="BP40" s="2"/>
       <c r="BQ40" s="2"/>
-    </row>
-    <row r="41" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR40" s="2"/>
+      <c r="BS40" s="2"/>
+      <c r="BT40" s="2"/>
+      <c r="BU40" s="2"/>
+      <c r="BV40" s="2"/>
+    </row>
+    <row r="41" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -3568,8 +3896,13 @@
       <c r="BO41" s="2"/>
       <c r="BP41" s="2"/>
       <c r="BQ41" s="2"/>
-    </row>
-    <row r="42" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR41" s="2"/>
+      <c r="BS41" s="2"/>
+      <c r="BT41" s="2"/>
+      <c r="BU41" s="2"/>
+      <c r="BV41" s="2"/>
+    </row>
+    <row r="42" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -3637,8 +3970,13 @@
       <c r="BO42" s="2"/>
       <c r="BP42" s="2"/>
       <c r="BQ42" s="2"/>
-    </row>
-    <row r="43" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR42" s="2"/>
+      <c r="BS42" s="2"/>
+      <c r="BT42" s="2"/>
+      <c r="BU42" s="2"/>
+      <c r="BV42" s="2"/>
+    </row>
+    <row r="43" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -3706,8 +4044,13 @@
       <c r="BO43" s="2"/>
       <c r="BP43" s="2"/>
       <c r="BQ43" s="2"/>
-    </row>
-    <row r="44" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR43" s="2"/>
+      <c r="BS43" s="2"/>
+      <c r="BT43" s="2"/>
+      <c r="BU43" s="2"/>
+      <c r="BV43" s="2"/>
+    </row>
+    <row r="44" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -3775,8 +4118,13 @@
       <c r="BO44" s="2"/>
       <c r="BP44" s="2"/>
       <c r="BQ44" s="2"/>
-    </row>
-    <row r="45" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR44" s="2"/>
+      <c r="BS44" s="2"/>
+      <c r="BT44" s="2"/>
+      <c r="BU44" s="2"/>
+      <c r="BV44" s="2"/>
+    </row>
+    <row r="45" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -3844,8 +4192,13 @@
       <c r="BO45" s="2"/>
       <c r="BP45" s="2"/>
       <c r="BQ45" s="2"/>
-    </row>
-    <row r="46" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR45" s="2"/>
+      <c r="BS45" s="2"/>
+      <c r="BT45" s="2"/>
+      <c r="BU45" s="2"/>
+      <c r="BV45" s="2"/>
+    </row>
+    <row r="46" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -3913,8 +4266,13 @@
       <c r="BO46" s="2"/>
       <c r="BP46" s="2"/>
       <c r="BQ46" s="2"/>
-    </row>
-    <row r="47" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR46" s="2"/>
+      <c r="BS46" s="2"/>
+      <c r="BT46" s="2"/>
+      <c r="BU46" s="2"/>
+      <c r="BV46" s="2"/>
+    </row>
+    <row r="47" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -3982,8 +4340,13 @@
       <c r="BO47" s="2"/>
       <c r="BP47" s="2"/>
       <c r="BQ47" s="2"/>
-    </row>
-    <row r="48" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR47" s="2"/>
+      <c r="BS47" s="2"/>
+      <c r="BT47" s="2"/>
+      <c r="BU47" s="2"/>
+      <c r="BV47" s="2"/>
+    </row>
+    <row r="48" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -4051,8 +4414,13 @@
       <c r="BO48" s="2"/>
       <c r="BP48" s="2"/>
       <c r="BQ48" s="2"/>
-    </row>
-    <row r="49" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR48" s="2"/>
+      <c r="BS48" s="2"/>
+      <c r="BT48" s="2"/>
+      <c r="BU48" s="2"/>
+      <c r="BV48" s="2"/>
+    </row>
+    <row r="49" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -4120,8 +4488,13 @@
       <c r="BO49" s="2"/>
       <c r="BP49" s="2"/>
       <c r="BQ49" s="2"/>
-    </row>
-    <row r="50" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR49" s="2"/>
+      <c r="BS49" s="2"/>
+      <c r="BT49" s="2"/>
+      <c r="BU49" s="2"/>
+      <c r="BV49" s="2"/>
+    </row>
+    <row r="50" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -4189,8 +4562,13 @@
       <c r="BO50" s="2"/>
       <c r="BP50" s="2"/>
       <c r="BQ50" s="2"/>
-    </row>
-    <row r="51" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR50" s="2"/>
+      <c r="BS50" s="2"/>
+      <c r="BT50" s="2"/>
+      <c r="BU50" s="2"/>
+      <c r="BV50" s="2"/>
+    </row>
+    <row r="51" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -4258,8 +4636,13 @@
       <c r="BO51" s="2"/>
       <c r="BP51" s="2"/>
       <c r="BQ51" s="2"/>
-    </row>
-    <row r="52" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR51" s="2"/>
+      <c r="BS51" s="2"/>
+      <c r="BT51" s="2"/>
+      <c r="BU51" s="2"/>
+      <c r="BV51" s="2"/>
+    </row>
+    <row r="52" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -4327,8 +4710,13 @@
       <c r="BO52" s="2"/>
       <c r="BP52" s="2"/>
       <c r="BQ52" s="2"/>
-    </row>
-    <row r="53" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR52" s="2"/>
+      <c r="BS52" s="2"/>
+      <c r="BT52" s="2"/>
+      <c r="BU52" s="2"/>
+      <c r="BV52" s="2"/>
+    </row>
+    <row r="53" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -4396,8 +4784,13 @@
       <c r="BO53" s="2"/>
       <c r="BP53" s="2"/>
       <c r="BQ53" s="2"/>
-    </row>
-    <row r="54" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR53" s="2"/>
+      <c r="BS53" s="2"/>
+      <c r="BT53" s="2"/>
+      <c r="BU53" s="2"/>
+      <c r="BV53" s="2"/>
+    </row>
+    <row r="54" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -4465,8 +4858,13 @@
       <c r="BO54" s="2"/>
       <c r="BP54" s="2"/>
       <c r="BQ54" s="2"/>
-    </row>
-    <row r="55" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR54" s="2"/>
+      <c r="BS54" s="2"/>
+      <c r="BT54" s="2"/>
+      <c r="BU54" s="2"/>
+      <c r="BV54" s="2"/>
+    </row>
+    <row r="55" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -4534,8 +4932,13 @@
       <c r="BO55" s="2"/>
       <c r="BP55" s="2"/>
       <c r="BQ55" s="2"/>
-    </row>
-    <row r="56" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR55" s="2"/>
+      <c r="BS55" s="2"/>
+      <c r="BT55" s="2"/>
+      <c r="BU55" s="2"/>
+      <c r="BV55" s="2"/>
+    </row>
+    <row r="56" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -4603,8 +5006,13 @@
       <c r="BO56" s="2"/>
       <c r="BP56" s="2"/>
       <c r="BQ56" s="2"/>
-    </row>
-    <row r="57" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR56" s="2"/>
+      <c r="BS56" s="2"/>
+      <c r="BT56" s="2"/>
+      <c r="BU56" s="2"/>
+      <c r="BV56" s="2"/>
+    </row>
+    <row r="57" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -4672,8 +5080,13 @@
       <c r="BO57" s="2"/>
       <c r="BP57" s="2"/>
       <c r="BQ57" s="2"/>
-    </row>
-    <row r="58" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR57" s="2"/>
+      <c r="BS57" s="2"/>
+      <c r="BT57" s="2"/>
+      <c r="BU57" s="2"/>
+      <c r="BV57" s="2"/>
+    </row>
+    <row r="58" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -4741,8 +5154,13 @@
       <c r="BO58" s="2"/>
       <c r="BP58" s="2"/>
       <c r="BQ58" s="2"/>
-    </row>
-    <row r="59" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR58" s="2"/>
+      <c r="BS58" s="2"/>
+      <c r="BT58" s="2"/>
+      <c r="BU58" s="2"/>
+      <c r="BV58" s="2"/>
+    </row>
+    <row r="59" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -4810,8 +5228,13 @@
       <c r="BO59" s="2"/>
       <c r="BP59" s="2"/>
       <c r="BQ59" s="2"/>
-    </row>
-    <row r="60" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR59" s="2"/>
+      <c r="BS59" s="2"/>
+      <c r="BT59" s="2"/>
+      <c r="BU59" s="2"/>
+      <c r="BV59" s="2"/>
+    </row>
+    <row r="60" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -4879,8 +5302,13 @@
       <c r="BO60" s="2"/>
       <c r="BP60" s="2"/>
       <c r="BQ60" s="2"/>
-    </row>
-    <row r="61" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR60" s="2"/>
+      <c r="BS60" s="2"/>
+      <c r="BT60" s="2"/>
+      <c r="BU60" s="2"/>
+      <c r="BV60" s="2"/>
+    </row>
+    <row r="61" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -4948,8 +5376,13 @@
       <c r="BO61" s="2"/>
       <c r="BP61" s="2"/>
       <c r="BQ61" s="2"/>
-    </row>
-    <row r="62" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR61" s="2"/>
+      <c r="BS61" s="2"/>
+      <c r="BT61" s="2"/>
+      <c r="BU61" s="2"/>
+      <c r="BV61" s="2"/>
+    </row>
+    <row r="62" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -5017,8 +5450,13 @@
       <c r="BO62" s="2"/>
       <c r="BP62" s="2"/>
       <c r="BQ62" s="2"/>
-    </row>
-    <row r="63" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR62" s="2"/>
+      <c r="BS62" s="2"/>
+      <c r="BT62" s="2"/>
+      <c r="BU62" s="2"/>
+      <c r="BV62" s="2"/>
+    </row>
+    <row r="63" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -5086,8 +5524,13 @@
       <c r="BO63" s="2"/>
       <c r="BP63" s="2"/>
       <c r="BQ63" s="2"/>
-    </row>
-    <row r="64" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR63" s="2"/>
+      <c r="BS63" s="2"/>
+      <c r="BT63" s="2"/>
+      <c r="BU63" s="2"/>
+      <c r="BV63" s="2"/>
+    </row>
+    <row r="64" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -5155,8 +5598,13 @@
       <c r="BO64" s="2"/>
       <c r="BP64" s="2"/>
       <c r="BQ64" s="2"/>
-    </row>
-    <row r="65" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR64" s="2"/>
+      <c r="BS64" s="2"/>
+      <c r="BT64" s="2"/>
+      <c r="BU64" s="2"/>
+      <c r="BV64" s="2"/>
+    </row>
+    <row r="65" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -5224,8 +5672,13 @@
       <c r="BO65" s="2"/>
       <c r="BP65" s="2"/>
       <c r="BQ65" s="2"/>
-    </row>
-    <row r="66" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR65" s="2"/>
+      <c r="BS65" s="2"/>
+      <c r="BT65" s="2"/>
+      <c r="BU65" s="2"/>
+      <c r="BV65" s="2"/>
+    </row>
+    <row r="66" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -5293,8 +5746,13 @@
       <c r="BO66" s="2"/>
       <c r="BP66" s="2"/>
       <c r="BQ66" s="2"/>
-    </row>
-    <row r="67" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR66" s="2"/>
+      <c r="BS66" s="2"/>
+      <c r="BT66" s="2"/>
+      <c r="BU66" s="2"/>
+      <c r="BV66" s="2"/>
+    </row>
+    <row r="67" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -5362,8 +5820,13 @@
       <c r="BO67" s="2"/>
       <c r="BP67" s="2"/>
       <c r="BQ67" s="2"/>
-    </row>
-    <row r="68" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR67" s="2"/>
+      <c r="BS67" s="2"/>
+      <c r="BT67" s="2"/>
+      <c r="BU67" s="2"/>
+      <c r="BV67" s="2"/>
+    </row>
+    <row r="68" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -5431,8 +5894,13 @@
       <c r="BO68" s="2"/>
       <c r="BP68" s="2"/>
       <c r="BQ68" s="2"/>
-    </row>
-    <row r="69" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR68" s="2"/>
+      <c r="BS68" s="2"/>
+      <c r="BT68" s="2"/>
+      <c r="BU68" s="2"/>
+      <c r="BV68" s="2"/>
+    </row>
+    <row r="69" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -5500,8 +5968,13 @@
       <c r="BO69" s="2"/>
       <c r="BP69" s="2"/>
       <c r="BQ69" s="2"/>
-    </row>
-    <row r="70" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR69" s="2"/>
+      <c r="BS69" s="2"/>
+      <c r="BT69" s="2"/>
+      <c r="BU69" s="2"/>
+      <c r="BV69" s="2"/>
+    </row>
+    <row r="70" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -5569,8 +6042,13 @@
       <c r="BO70" s="2"/>
       <c r="BP70" s="2"/>
       <c r="BQ70" s="2"/>
-    </row>
-    <row r="71" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR70" s="2"/>
+      <c r="BS70" s="2"/>
+      <c r="BT70" s="2"/>
+      <c r="BU70" s="2"/>
+      <c r="BV70" s="2"/>
+    </row>
+    <row r="71" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -5638,8 +6116,13 @@
       <c r="BO71" s="2"/>
       <c r="BP71" s="2"/>
       <c r="BQ71" s="2"/>
-    </row>
-    <row r="72" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR71" s="2"/>
+      <c r="BS71" s="2"/>
+      <c r="BT71" s="2"/>
+      <c r="BU71" s="2"/>
+      <c r="BV71" s="2"/>
+    </row>
+    <row r="72" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -5707,8 +6190,13 @@
       <c r="BO72" s="2"/>
       <c r="BP72" s="2"/>
       <c r="BQ72" s="2"/>
-    </row>
-    <row r="73" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR72" s="2"/>
+      <c r="BS72" s="2"/>
+      <c r="BT72" s="2"/>
+      <c r="BU72" s="2"/>
+      <c r="BV72" s="2"/>
+    </row>
+    <row r="73" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -5776,8 +6264,13 @@
       <c r="BO73" s="2"/>
       <c r="BP73" s="2"/>
       <c r="BQ73" s="2"/>
-    </row>
-    <row r="74" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR73" s="2"/>
+      <c r="BS73" s="2"/>
+      <c r="BT73" s="2"/>
+      <c r="BU73" s="2"/>
+      <c r="BV73" s="2"/>
+    </row>
+    <row r="74" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -5845,8 +6338,13 @@
       <c r="BO74" s="2"/>
       <c r="BP74" s="2"/>
       <c r="BQ74" s="2"/>
-    </row>
-    <row r="75" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR74" s="2"/>
+      <c r="BS74" s="2"/>
+      <c r="BT74" s="2"/>
+      <c r="BU74" s="2"/>
+      <c r="BV74" s="2"/>
+    </row>
+    <row r="75" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -5914,8 +6412,13 @@
       <c r="BO75" s="2"/>
       <c r="BP75" s="2"/>
       <c r="BQ75" s="2"/>
-    </row>
-    <row r="76" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR75" s="2"/>
+      <c r="BS75" s="2"/>
+      <c r="BT75" s="2"/>
+      <c r="BU75" s="2"/>
+      <c r="BV75" s="2"/>
+    </row>
+    <row r="76" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -5983,8 +6486,13 @@
       <c r="BO76" s="2"/>
       <c r="BP76" s="2"/>
       <c r="BQ76" s="2"/>
-    </row>
-    <row r="77" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR76" s="2"/>
+      <c r="BS76" s="2"/>
+      <c r="BT76" s="2"/>
+      <c r="BU76" s="2"/>
+      <c r="BV76" s="2"/>
+    </row>
+    <row r="77" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -6052,8 +6560,13 @@
       <c r="BO77" s="2"/>
       <c r="BP77" s="2"/>
       <c r="BQ77" s="2"/>
-    </row>
-    <row r="78" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR77" s="2"/>
+      <c r="BS77" s="2"/>
+      <c r="BT77" s="2"/>
+      <c r="BU77" s="2"/>
+      <c r="BV77" s="2"/>
+    </row>
+    <row r="78" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -6121,8 +6634,13 @@
       <c r="BO78" s="2"/>
       <c r="BP78" s="2"/>
       <c r="BQ78" s="2"/>
-    </row>
-    <row r="79" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR78" s="2"/>
+      <c r="BS78" s="2"/>
+      <c r="BT78" s="2"/>
+      <c r="BU78" s="2"/>
+      <c r="BV78" s="2"/>
+    </row>
+    <row r="79" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -6190,8 +6708,13 @@
       <c r="BO79" s="2"/>
       <c r="BP79" s="2"/>
       <c r="BQ79" s="2"/>
-    </row>
-    <row r="80" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR79" s="2"/>
+      <c r="BS79" s="2"/>
+      <c r="BT79" s="2"/>
+      <c r="BU79" s="2"/>
+      <c r="BV79" s="2"/>
+    </row>
+    <row r="80" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -6259,8 +6782,13 @@
       <c r="BO80" s="2"/>
       <c r="BP80" s="2"/>
       <c r="BQ80" s="2"/>
-    </row>
-    <row r="81" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR80" s="2"/>
+      <c r="BS80" s="2"/>
+      <c r="BT80" s="2"/>
+      <c r="BU80" s="2"/>
+      <c r="BV80" s="2"/>
+    </row>
+    <row r="81" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -6328,8 +6856,13 @@
       <c r="BO81" s="2"/>
       <c r="BP81" s="2"/>
       <c r="BQ81" s="2"/>
-    </row>
-    <row r="82" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR81" s="2"/>
+      <c r="BS81" s="2"/>
+      <c r="BT81" s="2"/>
+      <c r="BU81" s="2"/>
+      <c r="BV81" s="2"/>
+    </row>
+    <row r="82" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -6397,8 +6930,13 @@
       <c r="BO82" s="2"/>
       <c r="BP82" s="2"/>
       <c r="BQ82" s="2"/>
-    </row>
-    <row r="83" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR82" s="2"/>
+      <c r="BS82" s="2"/>
+      <c r="BT82" s="2"/>
+      <c r="BU82" s="2"/>
+      <c r="BV82" s="2"/>
+    </row>
+    <row r="83" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -6466,8 +7004,13 @@
       <c r="BO83" s="2"/>
       <c r="BP83" s="2"/>
       <c r="BQ83" s="2"/>
-    </row>
-    <row r="84" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR83" s="2"/>
+      <c r="BS83" s="2"/>
+      <c r="BT83" s="2"/>
+      <c r="BU83" s="2"/>
+      <c r="BV83" s="2"/>
+    </row>
+    <row r="84" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -6535,8 +7078,13 @@
       <c r="BO84" s="2"/>
       <c r="BP84" s="2"/>
       <c r="BQ84" s="2"/>
-    </row>
-    <row r="85" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR84" s="2"/>
+      <c r="BS84" s="2"/>
+      <c r="BT84" s="2"/>
+      <c r="BU84" s="2"/>
+      <c r="BV84" s="2"/>
+    </row>
+    <row r="85" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -6604,8 +7152,13 @@
       <c r="BO85" s="2"/>
       <c r="BP85" s="2"/>
       <c r="BQ85" s="2"/>
-    </row>
-    <row r="86" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR85" s="2"/>
+      <c r="BS85" s="2"/>
+      <c r="BT85" s="2"/>
+      <c r="BU85" s="2"/>
+      <c r="BV85" s="2"/>
+    </row>
+    <row r="86" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -6673,8 +7226,13 @@
       <c r="BO86" s="2"/>
       <c r="BP86" s="2"/>
       <c r="BQ86" s="2"/>
-    </row>
-    <row r="87" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR86" s="2"/>
+      <c r="BS86" s="2"/>
+      <c r="BT86" s="2"/>
+      <c r="BU86" s="2"/>
+      <c r="BV86" s="2"/>
+    </row>
+    <row r="87" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -6742,8 +7300,13 @@
       <c r="BO87" s="2"/>
       <c r="BP87" s="2"/>
       <c r="BQ87" s="2"/>
-    </row>
-    <row r="88" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR87" s="2"/>
+      <c r="BS87" s="2"/>
+      <c r="BT87" s="2"/>
+      <c r="BU87" s="2"/>
+      <c r="BV87" s="2"/>
+    </row>
+    <row r="88" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -6811,8 +7374,13 @@
       <c r="BO88" s="2"/>
       <c r="BP88" s="2"/>
       <c r="BQ88" s="2"/>
-    </row>
-    <row r="89" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR88" s="2"/>
+      <c r="BS88" s="2"/>
+      <c r="BT88" s="2"/>
+      <c r="BU88" s="2"/>
+      <c r="BV88" s="2"/>
+    </row>
+    <row r="89" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -6880,8 +7448,13 @@
       <c r="BO89" s="2"/>
       <c r="BP89" s="2"/>
       <c r="BQ89" s="2"/>
-    </row>
-    <row r="90" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR89" s="2"/>
+      <c r="BS89" s="2"/>
+      <c r="BT89" s="2"/>
+      <c r="BU89" s="2"/>
+      <c r="BV89" s="2"/>
+    </row>
+    <row r="90" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -6949,8 +7522,13 @@
       <c r="BO90" s="2"/>
       <c r="BP90" s="2"/>
       <c r="BQ90" s="2"/>
-    </row>
-    <row r="91" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR90" s="2"/>
+      <c r="BS90" s="2"/>
+      <c r="BT90" s="2"/>
+      <c r="BU90" s="2"/>
+      <c r="BV90" s="2"/>
+    </row>
+    <row r="91" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -7018,8 +7596,13 @@
       <c r="BO91" s="2"/>
       <c r="BP91" s="2"/>
       <c r="BQ91" s="2"/>
-    </row>
-    <row r="92" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR91" s="2"/>
+      <c r="BS91" s="2"/>
+      <c r="BT91" s="2"/>
+      <c r="BU91" s="2"/>
+      <c r="BV91" s="2"/>
+    </row>
+    <row r="92" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -7087,8 +7670,13 @@
       <c r="BO92" s="2"/>
       <c r="BP92" s="2"/>
       <c r="BQ92" s="2"/>
-    </row>
-    <row r="93" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR92" s="2"/>
+      <c r="BS92" s="2"/>
+      <c r="BT92" s="2"/>
+      <c r="BU92" s="2"/>
+      <c r="BV92" s="2"/>
+    </row>
+    <row r="93" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -7156,8 +7744,13 @@
       <c r="BO93" s="2"/>
       <c r="BP93" s="2"/>
       <c r="BQ93" s="2"/>
-    </row>
-    <row r="94" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR93" s="2"/>
+      <c r="BS93" s="2"/>
+      <c r="BT93" s="2"/>
+      <c r="BU93" s="2"/>
+      <c r="BV93" s="2"/>
+    </row>
+    <row r="94" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -7225,8 +7818,13 @@
       <c r="BO94" s="2"/>
       <c r="BP94" s="2"/>
       <c r="BQ94" s="2"/>
-    </row>
-    <row r="95" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR94" s="2"/>
+      <c r="BS94" s="2"/>
+      <c r="BT94" s="2"/>
+      <c r="BU94" s="2"/>
+      <c r="BV94" s="2"/>
+    </row>
+    <row r="95" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -7294,8 +7892,13 @@
       <c r="BO95" s="2"/>
       <c r="BP95" s="2"/>
       <c r="BQ95" s="2"/>
-    </row>
-    <row r="96" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR95" s="2"/>
+      <c r="BS95" s="2"/>
+      <c r="BT95" s="2"/>
+      <c r="BU95" s="2"/>
+      <c r="BV95" s="2"/>
+    </row>
+    <row r="96" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -7363,8 +7966,13 @@
       <c r="BO96" s="2"/>
       <c r="BP96" s="2"/>
       <c r="BQ96" s="2"/>
-    </row>
-    <row r="97" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR96" s="2"/>
+      <c r="BS96" s="2"/>
+      <c r="BT96" s="2"/>
+      <c r="BU96" s="2"/>
+      <c r="BV96" s="2"/>
+    </row>
+    <row r="97" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -7432,8 +8040,13 @@
       <c r="BO97" s="2"/>
       <c r="BP97" s="2"/>
       <c r="BQ97" s="2"/>
-    </row>
-    <row r="98" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR97" s="2"/>
+      <c r="BS97" s="2"/>
+      <c r="BT97" s="2"/>
+      <c r="BU97" s="2"/>
+      <c r="BV97" s="2"/>
+    </row>
+    <row r="98" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -7501,8 +8114,13 @@
       <c r="BO98" s="2"/>
       <c r="BP98" s="2"/>
       <c r="BQ98" s="2"/>
-    </row>
-    <row r="99" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR98" s="2"/>
+      <c r="BS98" s="2"/>
+      <c r="BT98" s="2"/>
+      <c r="BU98" s="2"/>
+      <c r="BV98" s="2"/>
+    </row>
+    <row r="99" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -7570,8 +8188,13 @@
       <c r="BO99" s="2"/>
       <c r="BP99" s="2"/>
       <c r="BQ99" s="2"/>
-    </row>
-    <row r="100" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR99" s="2"/>
+      <c r="BS99" s="2"/>
+      <c r="BT99" s="2"/>
+      <c r="BU99" s="2"/>
+      <c r="BV99" s="2"/>
+    </row>
+    <row r="100" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -7639,8 +8262,13 @@
       <c r="BO100" s="2"/>
       <c r="BP100" s="2"/>
       <c r="BQ100" s="2"/>
-    </row>
-    <row r="101" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR100" s="2"/>
+      <c r="BS100" s="2"/>
+      <c r="BT100" s="2"/>
+      <c r="BU100" s="2"/>
+      <c r="BV100" s="2"/>
+    </row>
+    <row r="101" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -7708,8 +8336,13 @@
       <c r="BO101" s="2"/>
       <c r="BP101" s="2"/>
       <c r="BQ101" s="2"/>
-    </row>
-    <row r="102" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR101" s="2"/>
+      <c r="BS101" s="2"/>
+      <c r="BT101" s="2"/>
+      <c r="BU101" s="2"/>
+      <c r="BV101" s="2"/>
+    </row>
+    <row r="102" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -7777,8 +8410,13 @@
       <c r="BO102" s="2"/>
       <c r="BP102" s="2"/>
       <c r="BQ102" s="2"/>
-    </row>
-    <row r="103" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR102" s="2"/>
+      <c r="BS102" s="2"/>
+      <c r="BT102" s="2"/>
+      <c r="BU102" s="2"/>
+      <c r="BV102" s="2"/>
+    </row>
+    <row r="103" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -7846,8 +8484,13 @@
       <c r="BO103" s="2"/>
       <c r="BP103" s="2"/>
       <c r="BQ103" s="2"/>
-    </row>
-    <row r="104" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR103" s="2"/>
+      <c r="BS103" s="2"/>
+      <c r="BT103" s="2"/>
+      <c r="BU103" s="2"/>
+      <c r="BV103" s="2"/>
+    </row>
+    <row r="104" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -7915,8 +8558,13 @@
       <c r="BO104" s="2"/>
       <c r="BP104" s="2"/>
       <c r="BQ104" s="2"/>
-    </row>
-    <row r="105" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR104" s="2"/>
+      <c r="BS104" s="2"/>
+      <c r="BT104" s="2"/>
+      <c r="BU104" s="2"/>
+      <c r="BV104" s="2"/>
+    </row>
+    <row r="105" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -7984,8 +8632,13 @@
       <c r="BO105" s="2"/>
       <c r="BP105" s="2"/>
       <c r="BQ105" s="2"/>
-    </row>
-    <row r="106" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR105" s="2"/>
+      <c r="BS105" s="2"/>
+      <c r="BT105" s="2"/>
+      <c r="BU105" s="2"/>
+      <c r="BV105" s="2"/>
+    </row>
+    <row r="106" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -8053,8 +8706,13 @@
       <c r="BO106" s="2"/>
       <c r="BP106" s="2"/>
       <c r="BQ106" s="2"/>
-    </row>
-    <row r="107" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR106" s="2"/>
+      <c r="BS106" s="2"/>
+      <c r="BT106" s="2"/>
+      <c r="BU106" s="2"/>
+      <c r="BV106" s="2"/>
+    </row>
+    <row r="107" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -8122,8 +8780,13 @@
       <c r="BO107" s="2"/>
       <c r="BP107" s="2"/>
       <c r="BQ107" s="2"/>
-    </row>
-    <row r="108" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR107" s="2"/>
+      <c r="BS107" s="2"/>
+      <c r="BT107" s="2"/>
+      <c r="BU107" s="2"/>
+      <c r="BV107" s="2"/>
+    </row>
+    <row r="108" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -8191,8 +8854,13 @@
       <c r="BO108" s="2"/>
       <c r="BP108" s="2"/>
       <c r="BQ108" s="2"/>
-    </row>
-    <row r="109" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR108" s="2"/>
+      <c r="BS108" s="2"/>
+      <c r="BT108" s="2"/>
+      <c r="BU108" s="2"/>
+      <c r="BV108" s="2"/>
+    </row>
+    <row r="109" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -8260,8 +8928,13 @@
       <c r="BO109" s="2"/>
       <c r="BP109" s="2"/>
       <c r="BQ109" s="2"/>
-    </row>
-    <row r="110" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR109" s="2"/>
+      <c r="BS109" s="2"/>
+      <c r="BT109" s="2"/>
+      <c r="BU109" s="2"/>
+      <c r="BV109" s="2"/>
+    </row>
+    <row r="110" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -8329,8 +9002,13 @@
       <c r="BO110" s="2"/>
       <c r="BP110" s="2"/>
       <c r="BQ110" s="2"/>
-    </row>
-    <row r="111" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR110" s="2"/>
+      <c r="BS110" s="2"/>
+      <c r="BT110" s="2"/>
+      <c r="BU110" s="2"/>
+      <c r="BV110" s="2"/>
+    </row>
+    <row r="111" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -8398,8 +9076,13 @@
       <c r="BO111" s="2"/>
       <c r="BP111" s="2"/>
       <c r="BQ111" s="2"/>
-    </row>
-    <row r="112" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR111" s="2"/>
+      <c r="BS111" s="2"/>
+      <c r="BT111" s="2"/>
+      <c r="BU111" s="2"/>
+      <c r="BV111" s="2"/>
+    </row>
+    <row r="112" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -8467,8 +9150,13 @@
       <c r="BO112" s="2"/>
       <c r="BP112" s="2"/>
       <c r="BQ112" s="2"/>
-    </row>
-    <row r="113" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR112" s="2"/>
+      <c r="BS112" s="2"/>
+      <c r="BT112" s="2"/>
+      <c r="BU112" s="2"/>
+      <c r="BV112" s="2"/>
+    </row>
+    <row r="113" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -8536,8 +9224,13 @@
       <c r="BO113" s="2"/>
       <c r="BP113" s="2"/>
       <c r="BQ113" s="2"/>
-    </row>
-    <row r="114" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR113" s="2"/>
+      <c r="BS113" s="2"/>
+      <c r="BT113" s="2"/>
+      <c r="BU113" s="2"/>
+      <c r="BV113" s="2"/>
+    </row>
+    <row r="114" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -8605,8 +9298,13 @@
       <c r="BO114" s="2"/>
       <c r="BP114" s="2"/>
       <c r="BQ114" s="2"/>
-    </row>
-    <row r="115" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR114" s="2"/>
+      <c r="BS114" s="2"/>
+      <c r="BT114" s="2"/>
+      <c r="BU114" s="2"/>
+      <c r="BV114" s="2"/>
+    </row>
+    <row r="115" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -8674,8 +9372,13 @@
       <c r="BO115" s="2"/>
       <c r="BP115" s="2"/>
       <c r="BQ115" s="2"/>
-    </row>
-    <row r="116" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR115" s="2"/>
+      <c r="BS115" s="2"/>
+      <c r="BT115" s="2"/>
+      <c r="BU115" s="2"/>
+      <c r="BV115" s="2"/>
+    </row>
+    <row r="116" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -8743,8 +9446,13 @@
       <c r="BO116" s="2"/>
       <c r="BP116" s="2"/>
       <c r="BQ116" s="2"/>
-    </row>
-    <row r="117" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR116" s="2"/>
+      <c r="BS116" s="2"/>
+      <c r="BT116" s="2"/>
+      <c r="BU116" s="2"/>
+      <c r="BV116" s="2"/>
+    </row>
+    <row r="117" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -8812,8 +9520,13 @@
       <c r="BO117" s="2"/>
       <c r="BP117" s="2"/>
       <c r="BQ117" s="2"/>
-    </row>
-    <row r="118" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR117" s="2"/>
+      <c r="BS117" s="2"/>
+      <c r="BT117" s="2"/>
+      <c r="BU117" s="2"/>
+      <c r="BV117" s="2"/>
+    </row>
+    <row r="118" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -8881,8 +9594,13 @@
       <c r="BO118" s="2"/>
       <c r="BP118" s="2"/>
       <c r="BQ118" s="2"/>
-    </row>
-    <row r="119" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR118" s="2"/>
+      <c r="BS118" s="2"/>
+      <c r="BT118" s="2"/>
+      <c r="BU118" s="2"/>
+      <c r="BV118" s="2"/>
+    </row>
+    <row r="119" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -8950,8 +9668,13 @@
       <c r="BO119" s="2"/>
       <c r="BP119" s="2"/>
       <c r="BQ119" s="2"/>
-    </row>
-    <row r="120" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR119" s="2"/>
+      <c r="BS119" s="2"/>
+      <c r="BT119" s="2"/>
+      <c r="BU119" s="2"/>
+      <c r="BV119" s="2"/>
+    </row>
+    <row r="120" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -9019,8 +9742,13 @@
       <c r="BO120" s="2"/>
       <c r="BP120" s="2"/>
       <c r="BQ120" s="2"/>
-    </row>
-    <row r="121" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR120" s="2"/>
+      <c r="BS120" s="2"/>
+      <c r="BT120" s="2"/>
+      <c r="BU120" s="2"/>
+      <c r="BV120" s="2"/>
+    </row>
+    <row r="121" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -9088,8 +9816,13 @@
       <c r="BO121" s="2"/>
       <c r="BP121" s="2"/>
       <c r="BQ121" s="2"/>
-    </row>
-    <row r="122" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR121" s="2"/>
+      <c r="BS121" s="2"/>
+      <c r="BT121" s="2"/>
+      <c r="BU121" s="2"/>
+      <c r="BV121" s="2"/>
+    </row>
+    <row r="122" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -9157,8 +9890,13 @@
       <c r="BO122" s="2"/>
       <c r="BP122" s="2"/>
       <c r="BQ122" s="2"/>
-    </row>
-    <row r="123" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR122" s="2"/>
+      <c r="BS122" s="2"/>
+      <c r="BT122" s="2"/>
+      <c r="BU122" s="2"/>
+      <c r="BV122" s="2"/>
+    </row>
+    <row r="123" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -9226,8 +9964,13 @@
       <c r="BO123" s="2"/>
       <c r="BP123" s="2"/>
       <c r="BQ123" s="2"/>
-    </row>
-    <row r="124" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR123" s="2"/>
+      <c r="BS123" s="2"/>
+      <c r="BT123" s="2"/>
+      <c r="BU123" s="2"/>
+      <c r="BV123" s="2"/>
+    </row>
+    <row r="124" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -9295,8 +10038,13 @@
       <c r="BO124" s="2"/>
       <c r="BP124" s="2"/>
       <c r="BQ124" s="2"/>
-    </row>
-    <row r="125" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR124" s="2"/>
+      <c r="BS124" s="2"/>
+      <c r="BT124" s="2"/>
+      <c r="BU124" s="2"/>
+      <c r="BV124" s="2"/>
+    </row>
+    <row r="125" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -9364,8 +10112,13 @@
       <c r="BO125" s="2"/>
       <c r="BP125" s="2"/>
       <c r="BQ125" s="2"/>
-    </row>
-    <row r="126" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR125" s="2"/>
+      <c r="BS125" s="2"/>
+      <c r="BT125" s="2"/>
+      <c r="BU125" s="2"/>
+      <c r="BV125" s="2"/>
+    </row>
+    <row r="126" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -9433,8 +10186,13 @@
       <c r="BO126" s="2"/>
       <c r="BP126" s="2"/>
       <c r="BQ126" s="2"/>
-    </row>
-    <row r="127" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR126" s="2"/>
+      <c r="BS126" s="2"/>
+      <c r="BT126" s="2"/>
+      <c r="BU126" s="2"/>
+      <c r="BV126" s="2"/>
+    </row>
+    <row r="127" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -9502,8 +10260,13 @@
       <c r="BO127" s="2"/>
       <c r="BP127" s="2"/>
       <c r="BQ127" s="2"/>
-    </row>
-    <row r="128" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR127" s="2"/>
+      <c r="BS127" s="2"/>
+      <c r="BT127" s="2"/>
+      <c r="BU127" s="2"/>
+      <c r="BV127" s="2"/>
+    </row>
+    <row r="128" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -9571,8 +10334,13 @@
       <c r="BO128" s="2"/>
       <c r="BP128" s="2"/>
       <c r="BQ128" s="2"/>
-    </row>
-    <row r="129" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR128" s="2"/>
+      <c r="BS128" s="2"/>
+      <c r="BT128" s="2"/>
+      <c r="BU128" s="2"/>
+      <c r="BV128" s="2"/>
+    </row>
+    <row r="129" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -9640,8 +10408,13 @@
       <c r="BO129" s="2"/>
       <c r="BP129" s="2"/>
       <c r="BQ129" s="2"/>
-    </row>
-    <row r="130" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR129" s="2"/>
+      <c r="BS129" s="2"/>
+      <c r="BT129" s="2"/>
+      <c r="BU129" s="2"/>
+      <c r="BV129" s="2"/>
+    </row>
+    <row r="130" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -9709,8 +10482,13 @@
       <c r="BO130" s="2"/>
       <c r="BP130" s="2"/>
       <c r="BQ130" s="2"/>
-    </row>
-    <row r="131" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR130" s="2"/>
+      <c r="BS130" s="2"/>
+      <c r="BT130" s="2"/>
+      <c r="BU130" s="2"/>
+      <c r="BV130" s="2"/>
+    </row>
+    <row r="131" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -9778,8 +10556,13 @@
       <c r="BO131" s="2"/>
       <c r="BP131" s="2"/>
       <c r="BQ131" s="2"/>
-    </row>
-    <row r="132" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR131" s="2"/>
+      <c r="BS131" s="2"/>
+      <c r="BT131" s="2"/>
+      <c r="BU131" s="2"/>
+      <c r="BV131" s="2"/>
+    </row>
+    <row r="132" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -9847,8 +10630,13 @@
       <c r="BO132" s="2"/>
       <c r="BP132" s="2"/>
       <c r="BQ132" s="2"/>
-    </row>
-    <row r="133" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR132" s="2"/>
+      <c r="BS132" s="2"/>
+      <c r="BT132" s="2"/>
+      <c r="BU132" s="2"/>
+      <c r="BV132" s="2"/>
+    </row>
+    <row r="133" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -9916,8 +10704,13 @@
       <c r="BO133" s="2"/>
       <c r="BP133" s="2"/>
       <c r="BQ133" s="2"/>
-    </row>
-    <row r="134" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR133" s="2"/>
+      <c r="BS133" s="2"/>
+      <c r="BT133" s="2"/>
+      <c r="BU133" s="2"/>
+      <c r="BV133" s="2"/>
+    </row>
+    <row r="134" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -9985,8 +10778,13 @@
       <c r="BO134" s="2"/>
       <c r="BP134" s="2"/>
       <c r="BQ134" s="2"/>
-    </row>
-    <row r="135" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR134" s="2"/>
+      <c r="BS134" s="2"/>
+      <c r="BT134" s="2"/>
+      <c r="BU134" s="2"/>
+      <c r="BV134" s="2"/>
+    </row>
+    <row r="135" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -10054,8 +10852,13 @@
       <c r="BO135" s="2"/>
       <c r="BP135" s="2"/>
       <c r="BQ135" s="2"/>
-    </row>
-    <row r="136" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR135" s="2"/>
+      <c r="BS135" s="2"/>
+      <c r="BT135" s="2"/>
+      <c r="BU135" s="2"/>
+      <c r="BV135" s="2"/>
+    </row>
+    <row r="136" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -10123,8 +10926,13 @@
       <c r="BO136" s="2"/>
       <c r="BP136" s="2"/>
       <c r="BQ136" s="2"/>
-    </row>
-    <row r="137" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR136" s="2"/>
+      <c r="BS136" s="2"/>
+      <c r="BT136" s="2"/>
+      <c r="BU136" s="2"/>
+      <c r="BV136" s="2"/>
+    </row>
+    <row r="137" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -10192,8 +11000,13 @@
       <c r="BO137" s="2"/>
       <c r="BP137" s="2"/>
       <c r="BQ137" s="2"/>
-    </row>
-    <row r="138" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR137" s="2"/>
+      <c r="BS137" s="2"/>
+      <c r="BT137" s="2"/>
+      <c r="BU137" s="2"/>
+      <c r="BV137" s="2"/>
+    </row>
+    <row r="138" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -10261,8 +11074,13 @@
       <c r="BO138" s="2"/>
       <c r="BP138" s="2"/>
       <c r="BQ138" s="2"/>
-    </row>
-    <row r="139" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR138" s="2"/>
+      <c r="BS138" s="2"/>
+      <c r="BT138" s="2"/>
+      <c r="BU138" s="2"/>
+      <c r="BV138" s="2"/>
+    </row>
+    <row r="139" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -10330,8 +11148,13 @@
       <c r="BO139" s="2"/>
       <c r="BP139" s="2"/>
       <c r="BQ139" s="2"/>
-    </row>
-    <row r="140" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR139" s="2"/>
+      <c r="BS139" s="2"/>
+      <c r="BT139" s="2"/>
+      <c r="BU139" s="2"/>
+      <c r="BV139" s="2"/>
+    </row>
+    <row r="140" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -10399,8 +11222,13 @@
       <c r="BO140" s="2"/>
       <c r="BP140" s="2"/>
       <c r="BQ140" s="2"/>
-    </row>
-    <row r="141" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR140" s="2"/>
+      <c r="BS140" s="2"/>
+      <c r="BT140" s="2"/>
+      <c r="BU140" s="2"/>
+      <c r="BV140" s="2"/>
+    </row>
+    <row r="141" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -10468,8 +11296,13 @@
       <c r="BO141" s="2"/>
       <c r="BP141" s="2"/>
       <c r="BQ141" s="2"/>
-    </row>
-    <row r="142" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR141" s="2"/>
+      <c r="BS141" s="2"/>
+      <c r="BT141" s="2"/>
+      <c r="BU141" s="2"/>
+      <c r="BV141" s="2"/>
+    </row>
+    <row r="142" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -10537,8 +11370,13 @@
       <c r="BO142" s="2"/>
       <c r="BP142" s="2"/>
       <c r="BQ142" s="2"/>
-    </row>
-    <row r="143" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR142" s="2"/>
+      <c r="BS142" s="2"/>
+      <c r="BT142" s="2"/>
+      <c r="BU142" s="2"/>
+      <c r="BV142" s="2"/>
+    </row>
+    <row r="143" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -10606,8 +11444,13 @@
       <c r="BO143" s="2"/>
       <c r="BP143" s="2"/>
       <c r="BQ143" s="2"/>
-    </row>
-    <row r="144" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR143" s="2"/>
+      <c r="BS143" s="2"/>
+      <c r="BT143" s="2"/>
+      <c r="BU143" s="2"/>
+      <c r="BV143" s="2"/>
+    </row>
+    <row r="144" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -10675,8 +11518,13 @@
       <c r="BO144" s="2"/>
       <c r="BP144" s="2"/>
       <c r="BQ144" s="2"/>
-    </row>
-    <row r="145" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR144" s="2"/>
+      <c r="BS144" s="2"/>
+      <c r="BT144" s="2"/>
+      <c r="BU144" s="2"/>
+      <c r="BV144" s="2"/>
+    </row>
+    <row r="145" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -10744,8 +11592,13 @@
       <c r="BO145" s="2"/>
       <c r="BP145" s="2"/>
       <c r="BQ145" s="2"/>
-    </row>
-    <row r="146" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR145" s="2"/>
+      <c r="BS145" s="2"/>
+      <c r="BT145" s="2"/>
+      <c r="BU145" s="2"/>
+      <c r="BV145" s="2"/>
+    </row>
+    <row r="146" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -10813,8 +11666,13 @@
       <c r="BO146" s="2"/>
       <c r="BP146" s="2"/>
       <c r="BQ146" s="2"/>
-    </row>
-    <row r="147" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR146" s="2"/>
+      <c r="BS146" s="2"/>
+      <c r="BT146" s="2"/>
+      <c r="BU146" s="2"/>
+      <c r="BV146" s="2"/>
+    </row>
+    <row r="147" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -10882,8 +11740,13 @@
       <c r="BO147" s="2"/>
       <c r="BP147" s="2"/>
       <c r="BQ147" s="2"/>
-    </row>
-    <row r="148" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR147" s="2"/>
+      <c r="BS147" s="2"/>
+      <c r="BT147" s="2"/>
+      <c r="BU147" s="2"/>
+      <c r="BV147" s="2"/>
+    </row>
+    <row r="148" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -10951,8 +11814,13 @@
       <c r="BO148" s="2"/>
       <c r="BP148" s="2"/>
       <c r="BQ148" s="2"/>
-    </row>
-    <row r="149" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR148" s="2"/>
+      <c r="BS148" s="2"/>
+      <c r="BT148" s="2"/>
+      <c r="BU148" s="2"/>
+      <c r="BV148" s="2"/>
+    </row>
+    <row r="149" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -11020,8 +11888,13 @@
       <c r="BO149" s="2"/>
       <c r="BP149" s="2"/>
       <c r="BQ149" s="2"/>
-    </row>
-    <row r="150" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR149" s="2"/>
+      <c r="BS149" s="2"/>
+      <c r="BT149" s="2"/>
+      <c r="BU149" s="2"/>
+      <c r="BV149" s="2"/>
+    </row>
+    <row r="150" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -11089,8 +11962,13 @@
       <c r="BO150" s="2"/>
       <c r="BP150" s="2"/>
       <c r="BQ150" s="2"/>
-    </row>
-    <row r="151" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR150" s="2"/>
+      <c r="BS150" s="2"/>
+      <c r="BT150" s="2"/>
+      <c r="BU150" s="2"/>
+      <c r="BV150" s="2"/>
+    </row>
+    <row r="151" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -11158,8 +12036,13 @@
       <c r="BO151" s="2"/>
       <c r="BP151" s="2"/>
       <c r="BQ151" s="2"/>
-    </row>
-    <row r="152" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR151" s="2"/>
+      <c r="BS151" s="2"/>
+      <c r="BT151" s="2"/>
+      <c r="BU151" s="2"/>
+      <c r="BV151" s="2"/>
+    </row>
+    <row r="152" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -11227,8 +12110,13 @@
       <c r="BO152" s="2"/>
       <c r="BP152" s="2"/>
       <c r="BQ152" s="2"/>
-    </row>
-    <row r="153" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR152" s="2"/>
+      <c r="BS152" s="2"/>
+      <c r="BT152" s="2"/>
+      <c r="BU152" s="2"/>
+      <c r="BV152" s="2"/>
+    </row>
+    <row r="153" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -11296,8 +12184,13 @@
       <c r="BO153" s="2"/>
       <c r="BP153" s="2"/>
       <c r="BQ153" s="2"/>
-    </row>
-    <row r="154" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR153" s="2"/>
+      <c r="BS153" s="2"/>
+      <c r="BT153" s="2"/>
+      <c r="BU153" s="2"/>
+      <c r="BV153" s="2"/>
+    </row>
+    <row r="154" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -11365,8 +12258,13 @@
       <c r="BO154" s="2"/>
       <c r="BP154" s="2"/>
       <c r="BQ154" s="2"/>
-    </row>
-    <row r="155" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR154" s="2"/>
+      <c r="BS154" s="2"/>
+      <c r="BT154" s="2"/>
+      <c r="BU154" s="2"/>
+      <c r="BV154" s="2"/>
+    </row>
+    <row r="155" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -11434,8 +12332,13 @@
       <c r="BO155" s="2"/>
       <c r="BP155" s="2"/>
       <c r="BQ155" s="2"/>
-    </row>
-    <row r="156" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR155" s="2"/>
+      <c r="BS155" s="2"/>
+      <c r="BT155" s="2"/>
+      <c r="BU155" s="2"/>
+      <c r="BV155" s="2"/>
+    </row>
+    <row r="156" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -11503,8 +12406,13 @@
       <c r="BO156" s="2"/>
       <c r="BP156" s="2"/>
       <c r="BQ156" s="2"/>
-    </row>
-    <row r="157" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR156" s="2"/>
+      <c r="BS156" s="2"/>
+      <c r="BT156" s="2"/>
+      <c r="BU156" s="2"/>
+      <c r="BV156" s="2"/>
+    </row>
+    <row r="157" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -11572,8 +12480,13 @@
       <c r="BO157" s="2"/>
       <c r="BP157" s="2"/>
       <c r="BQ157" s="2"/>
-    </row>
-    <row r="158" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR157" s="2"/>
+      <c r="BS157" s="2"/>
+      <c r="BT157" s="2"/>
+      <c r="BU157" s="2"/>
+      <c r="BV157" s="2"/>
+    </row>
+    <row r="158" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -11641,8 +12554,13 @@
       <c r="BO158" s="2"/>
       <c r="BP158" s="2"/>
       <c r="BQ158" s="2"/>
-    </row>
-    <row r="159" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR158" s="2"/>
+      <c r="BS158" s="2"/>
+      <c r="BT158" s="2"/>
+      <c r="BU158" s="2"/>
+      <c r="BV158" s="2"/>
+    </row>
+    <row r="159" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -11710,8 +12628,13 @@
       <c r="BO159" s="2"/>
       <c r="BP159" s="2"/>
       <c r="BQ159" s="2"/>
-    </row>
-    <row r="160" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR159" s="2"/>
+      <c r="BS159" s="2"/>
+      <c r="BT159" s="2"/>
+      <c r="BU159" s="2"/>
+      <c r="BV159" s="2"/>
+    </row>
+    <row r="160" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -11779,8 +12702,13 @@
       <c r="BO160" s="2"/>
       <c r="BP160" s="2"/>
       <c r="BQ160" s="2"/>
-    </row>
-    <row r="161" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR160" s="2"/>
+      <c r="BS160" s="2"/>
+      <c r="BT160" s="2"/>
+      <c r="BU160" s="2"/>
+      <c r="BV160" s="2"/>
+    </row>
+    <row r="161" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -11848,8 +12776,13 @@
       <c r="BO161" s="2"/>
       <c r="BP161" s="2"/>
       <c r="BQ161" s="2"/>
-    </row>
-    <row r="162" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR161" s="2"/>
+      <c r="BS161" s="2"/>
+      <c r="BT161" s="2"/>
+      <c r="BU161" s="2"/>
+      <c r="BV161" s="2"/>
+    </row>
+    <row r="162" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -11917,8 +12850,13 @@
       <c r="BO162" s="2"/>
       <c r="BP162" s="2"/>
       <c r="BQ162" s="2"/>
-    </row>
-    <row r="163" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR162" s="2"/>
+      <c r="BS162" s="2"/>
+      <c r="BT162" s="2"/>
+      <c r="BU162" s="2"/>
+      <c r="BV162" s="2"/>
+    </row>
+    <row r="163" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -11986,8 +12924,13 @@
       <c r="BO163" s="2"/>
       <c r="BP163" s="2"/>
       <c r="BQ163" s="2"/>
-    </row>
-    <row r="164" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR163" s="2"/>
+      <c r="BS163" s="2"/>
+      <c r="BT163" s="2"/>
+      <c r="BU163" s="2"/>
+      <c r="BV163" s="2"/>
+    </row>
+    <row r="164" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -12055,8 +12998,13 @@
       <c r="BO164" s="2"/>
       <c r="BP164" s="2"/>
       <c r="BQ164" s="2"/>
-    </row>
-    <row r="165" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR164" s="2"/>
+      <c r="BS164" s="2"/>
+      <c r="BT164" s="2"/>
+      <c r="BU164" s="2"/>
+      <c r="BV164" s="2"/>
+    </row>
+    <row r="165" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -12124,8 +13072,13 @@
       <c r="BO165" s="2"/>
       <c r="BP165" s="2"/>
       <c r="BQ165" s="2"/>
-    </row>
-    <row r="166" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR165" s="2"/>
+      <c r="BS165" s="2"/>
+      <c r="BT165" s="2"/>
+      <c r="BU165" s="2"/>
+      <c r="BV165" s="2"/>
+    </row>
+    <row r="166" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -12193,8 +13146,13 @@
       <c r="BO166" s="2"/>
       <c r="BP166" s="2"/>
       <c r="BQ166" s="2"/>
-    </row>
-    <row r="167" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR166" s="2"/>
+      <c r="BS166" s="2"/>
+      <c r="BT166" s="2"/>
+      <c r="BU166" s="2"/>
+      <c r="BV166" s="2"/>
+    </row>
+    <row r="167" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -12262,8 +13220,13 @@
       <c r="BO167" s="2"/>
       <c r="BP167" s="2"/>
       <c r="BQ167" s="2"/>
-    </row>
-    <row r="168" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR167" s="2"/>
+      <c r="BS167" s="2"/>
+      <c r="BT167" s="2"/>
+      <c r="BU167" s="2"/>
+      <c r="BV167" s="2"/>
+    </row>
+    <row r="168" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -12331,8 +13294,13 @@
       <c r="BO168" s="2"/>
       <c r="BP168" s="2"/>
       <c r="BQ168" s="2"/>
-    </row>
-    <row r="169" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR168" s="2"/>
+      <c r="BS168" s="2"/>
+      <c r="BT168" s="2"/>
+      <c r="BU168" s="2"/>
+      <c r="BV168" s="2"/>
+    </row>
+    <row r="169" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -12400,8 +13368,13 @@
       <c r="BO169" s="2"/>
       <c r="BP169" s="2"/>
       <c r="BQ169" s="2"/>
-    </row>
-    <row r="170" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR169" s="2"/>
+      <c r="BS169" s="2"/>
+      <c r="BT169" s="2"/>
+      <c r="BU169" s="2"/>
+      <c r="BV169" s="2"/>
+    </row>
+    <row r="170" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -12469,8 +13442,13 @@
       <c r="BO170" s="2"/>
       <c r="BP170" s="2"/>
       <c r="BQ170" s="2"/>
-    </row>
-    <row r="171" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR170" s="2"/>
+      <c r="BS170" s="2"/>
+      <c r="BT170" s="2"/>
+      <c r="BU170" s="2"/>
+      <c r="BV170" s="2"/>
+    </row>
+    <row r="171" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
@@ -12538,8 +13516,13 @@
       <c r="BO171" s="2"/>
       <c r="BP171" s="2"/>
       <c r="BQ171" s="2"/>
-    </row>
-    <row r="172" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR171" s="2"/>
+      <c r="BS171" s="2"/>
+      <c r="BT171" s="2"/>
+      <c r="BU171" s="2"/>
+      <c r="BV171" s="2"/>
+    </row>
+    <row r="172" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -12607,8 +13590,13 @@
       <c r="BO172" s="2"/>
       <c r="BP172" s="2"/>
       <c r="BQ172" s="2"/>
-    </row>
-    <row r="173" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR172" s="2"/>
+      <c r="BS172" s="2"/>
+      <c r="BT172" s="2"/>
+      <c r="BU172" s="2"/>
+      <c r="BV172" s="2"/>
+    </row>
+    <row r="173" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -12676,8 +13664,13 @@
       <c r="BO173" s="2"/>
       <c r="BP173" s="2"/>
       <c r="BQ173" s="2"/>
-    </row>
-    <row r="174" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR173" s="2"/>
+      <c r="BS173" s="2"/>
+      <c r="BT173" s="2"/>
+      <c r="BU173" s="2"/>
+      <c r="BV173" s="2"/>
+    </row>
+    <row r="174" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -12745,8 +13738,13 @@
       <c r="BO174" s="2"/>
       <c r="BP174" s="2"/>
       <c r="BQ174" s="2"/>
-    </row>
-    <row r="175" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR174" s="2"/>
+      <c r="BS174" s="2"/>
+      <c r="BT174" s="2"/>
+      <c r="BU174" s="2"/>
+      <c r="BV174" s="2"/>
+    </row>
+    <row r="175" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -12814,8 +13812,13 @@
       <c r="BO175" s="2"/>
       <c r="BP175" s="2"/>
       <c r="BQ175" s="2"/>
-    </row>
-    <row r="176" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR175" s="2"/>
+      <c r="BS175" s="2"/>
+      <c r="BT175" s="2"/>
+      <c r="BU175" s="2"/>
+      <c r="BV175" s="2"/>
+    </row>
+    <row r="176" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -12883,8 +13886,13 @@
       <c r="BO176" s="2"/>
       <c r="BP176" s="2"/>
       <c r="BQ176" s="2"/>
-    </row>
-    <row r="177" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR176" s="2"/>
+      <c r="BS176" s="2"/>
+      <c r="BT176" s="2"/>
+      <c r="BU176" s="2"/>
+      <c r="BV176" s="2"/>
+    </row>
+    <row r="177" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
@@ -12952,8 +13960,13 @@
       <c r="BO177" s="2"/>
       <c r="BP177" s="2"/>
       <c r="BQ177" s="2"/>
-    </row>
-    <row r="178" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR177" s="2"/>
+      <c r="BS177" s="2"/>
+      <c r="BT177" s="2"/>
+      <c r="BU177" s="2"/>
+      <c r="BV177" s="2"/>
+    </row>
+    <row r="178" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
@@ -13021,8 +14034,13 @@
       <c r="BO178" s="2"/>
       <c r="BP178" s="2"/>
       <c r="BQ178" s="2"/>
-    </row>
-    <row r="179" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR178" s="2"/>
+      <c r="BS178" s="2"/>
+      <c r="BT178" s="2"/>
+      <c r="BU178" s="2"/>
+      <c r="BV178" s="2"/>
+    </row>
+    <row r="179" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -13090,8 +14108,13 @@
       <c r="BO179" s="2"/>
       <c r="BP179" s="2"/>
       <c r="BQ179" s="2"/>
-    </row>
-    <row r="180" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR179" s="2"/>
+      <c r="BS179" s="2"/>
+      <c r="BT179" s="2"/>
+      <c r="BU179" s="2"/>
+      <c r="BV179" s="2"/>
+    </row>
+    <row r="180" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
@@ -13159,8 +14182,13 @@
       <c r="BO180" s="2"/>
       <c r="BP180" s="2"/>
       <c r="BQ180" s="2"/>
-    </row>
-    <row r="181" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR180" s="2"/>
+      <c r="BS180" s="2"/>
+      <c r="BT180" s="2"/>
+      <c r="BU180" s="2"/>
+      <c r="BV180" s="2"/>
+    </row>
+    <row r="181" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -13228,8 +14256,13 @@
       <c r="BO181" s="2"/>
       <c r="BP181" s="2"/>
       <c r="BQ181" s="2"/>
-    </row>
-    <row r="182" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR181" s="2"/>
+      <c r="BS181" s="2"/>
+      <c r="BT181" s="2"/>
+      <c r="BU181" s="2"/>
+      <c r="BV181" s="2"/>
+    </row>
+    <row r="182" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -13297,8 +14330,13 @@
       <c r="BO182" s="2"/>
       <c r="BP182" s="2"/>
       <c r="BQ182" s="2"/>
-    </row>
-    <row r="183" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR182" s="2"/>
+      <c r="BS182" s="2"/>
+      <c r="BT182" s="2"/>
+      <c r="BU182" s="2"/>
+      <c r="BV182" s="2"/>
+    </row>
+    <row r="183" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -13366,8 +14404,13 @@
       <c r="BO183" s="2"/>
       <c r="BP183" s="2"/>
       <c r="BQ183" s="2"/>
-    </row>
-    <row r="184" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR183" s="2"/>
+      <c r="BS183" s="2"/>
+      <c r="BT183" s="2"/>
+      <c r="BU183" s="2"/>
+      <c r="BV183" s="2"/>
+    </row>
+    <row r="184" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -13435,8 +14478,13 @@
       <c r="BO184" s="2"/>
       <c r="BP184" s="2"/>
       <c r="BQ184" s="2"/>
-    </row>
-    <row r="185" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="BR184" s="2"/>
+      <c r="BS184" s="2"/>
+      <c r="BT184" s="2"/>
+      <c r="BU184" s="2"/>
+      <c r="BV184" s="2"/>
+    </row>
+    <row r="185" spans="3:74" x14ac:dyDescent="0.25">
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -13504,6 +14552,11 @@
       <c r="BO185" s="2"/>
       <c r="BP185" s="2"/>
       <c r="BQ185" s="2"/>
+      <c r="BR185" s="2"/>
+      <c r="BS185" s="2"/>
+      <c r="BT185" s="2"/>
+      <c r="BU185" s="2"/>
+      <c r="BV185" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/GIL.xlsx
+++ b/GIL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C39CF52-0E81-4474-B493-A829B19F7528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBE6BBD-7614-4E31-8C11-C9AB7BA5F574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{8FF81416-71A4-47E4-A621-F1E8D8B5CE92}"/>
   </bookViews>
@@ -578,7 +578,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,7 +599,7 @@
         <v>4</v>
       </c>
       <c r="I2">
-        <v>51.16</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -622,7 +622,7 @@
       </c>
       <c r="I4" s="2">
         <f>+I2*I3</f>
-        <v>7769.9249999999993</v>
+        <v>8580.9375</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -656,7 +656,7 @@
       </c>
       <c r="I7" s="2">
         <f>+I4+I6-I5</f>
-        <v>9498.0290000000005</v>
+        <v>10309.041500000001</v>
       </c>
     </row>
   </sheetData>
@@ -2187,7 +2187,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K19" s="6">
-        <f t="shared" ref="J19:N19" si="9">+K17/K20</f>
+        <f t="shared" ref="K19" si="9">+K17/K20</f>
         <v>0.55757695473251034</v>
       </c>
       <c r="L19" s="6" t="e">

--- a/GIL.xlsx
+++ b/GIL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7983BF67-0A45-4C72-8E09-9072590351F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617C68D5-311D-4E64-BE04-CAB6FF8F083C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="735" windowWidth="38175" windowHeight="15240" xr2:uid="{8FF81416-71A4-47E4-A621-F1E8D8B5CE92}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{8FF81416-71A4-47E4-A621-F1E8D8B5CE92}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>Gildan Activewear</t>
   </si>
@@ -176,6 +176,24 @@
   <si>
     <t>Q425</t>
   </si>
+  <si>
+    <t>Activewear Growth</t>
+  </si>
+  <si>
+    <t>Hosiery &amp; Underwear Growth</t>
+  </si>
+  <si>
+    <t>Revenue Growth</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>Operating Margin</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
+  </si>
 </sst>
 </file>
 
@@ -184,13 +202,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -220,6 +244,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -238,25 +269,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -590,9 +628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{274EE32F-57FA-4DDA-8E39-E87CCA06F538}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -613,7 +649,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="2">
-        <v>56.5</v>
+        <v>76.81</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -621,10 +657,10 @@
         <v>5</v>
       </c>
       <c r="I3" s="3">
-        <v>151.875</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>42</v>
+        <v>150.762</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -636,7 +672,7 @@
       </c>
       <c r="I4" s="3">
         <f>+I2*I3</f>
-        <v>8580.9375</v>
+        <v>11580.02922</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -647,10 +683,10 @@
         <v>7</v>
       </c>
       <c r="I5" s="3">
-        <v>75.495999999999995</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>42</v>
+        <v>86.016000000000005</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -658,10 +694,10 @@
         <v>8</v>
       </c>
       <c r="I6" s="3">
-        <v>1803.6</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>42</v>
+        <v>1856.34</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -670,7 +706,7 @@
       </c>
       <c r="I7" s="3">
         <f>+I4+I6-I5</f>
-        <v>10309.041500000001</v>
+        <v>13350.353220000001</v>
       </c>
     </row>
   </sheetData>
@@ -686,10 +722,10 @@
   <dimension ref="A1:BV185"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -774,11 +810,17 @@
       <c r="G3" s="2">
         <v>592.1</v>
       </c>
+      <c r="H3" s="2">
+        <v>736.5</v>
+      </c>
       <c r="I3" s="2">
         <v>788.3</v>
       </c>
       <c r="K3" s="2">
         <v>647.4</v>
+      </c>
+      <c r="L3" s="8">
+        <v>822.2</v>
       </c>
     </row>
     <row r="4" spans="1:74" x14ac:dyDescent="0.2">
@@ -794,7 +836,9 @@
       <c r="G4" s="3">
         <v>103.7</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="3">
+        <v>125.6</v>
+      </c>
       <c r="I4" s="3">
         <v>102.8</v>
       </c>
@@ -802,7 +846,9 @@
       <c r="K4" s="3">
         <v>64.3</v>
       </c>
-      <c r="L4" s="3"/>
+      <c r="L4" s="3">
+        <v>96.3</v>
+      </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -879,7 +925,9 @@
       <c r="G5" s="3">
         <v>618</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3">
+        <v>763.7</v>
+      </c>
       <c r="I5" s="3">
         <v>798.8</v>
       </c>
@@ -887,7 +935,9 @@
       <c r="K5" s="3">
         <v>632.6</v>
       </c>
-      <c r="L5" s="3"/>
+      <c r="L5" s="3">
+        <v>825.6</v>
+      </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -964,7 +1014,9 @@
       <c r="G6" s="3">
         <v>25.3</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3">
+        <v>27.5</v>
+      </c>
       <c r="I6" s="3">
         <v>28.2</v>
       </c>
@@ -972,7 +1024,9 @@
       <c r="K6" s="3">
         <v>27.9</v>
       </c>
-      <c r="L6" s="3"/>
+      <c r="L6" s="3">
+        <v>32</v>
+      </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -1049,7 +1103,9 @@
       <c r="G7" s="3">
         <v>52.5</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3">
+        <v>70.900000000000006</v>
+      </c>
       <c r="I7" s="3">
         <v>64.099999999999994</v>
       </c>
@@ -1057,7 +1113,9 @@
       <c r="K7" s="3">
         <v>51.2</v>
       </c>
-      <c r="L7" s="3"/>
+      <c r="L7" s="3">
+        <v>60.9</v>
+      </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -1150,7 +1208,9 @@
       <c r="K8" s="6">
         <v>711.67200000000003</v>
       </c>
-      <c r="L8" s="6"/>
+      <c r="L8" s="6">
+        <v>918.5</v>
+      </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -1227,7 +1287,9 @@
       <c r="G9" s="3">
         <v>484.66300000000001</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="3">
+        <v>600.21600000000001</v>
+      </c>
       <c r="I9" s="3">
         <v>613.49900000000002</v>
       </c>
@@ -1235,7 +1297,9 @@
       <c r="K9" s="3">
         <v>489.73500000000001</v>
       </c>
-      <c r="L9" s="3"/>
+      <c r="L9" s="3">
+        <v>629.12900000000002</v>
+      </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -1325,7 +1389,7 @@
       </c>
       <c r="H10" s="3">
         <f t="shared" si="0"/>
-        <v>862.2</v>
+        <v>261.98400000000004</v>
       </c>
       <c r="I10" s="3">
         <f>+I8-I9</f>
@@ -1341,7 +1405,7 @@
       </c>
       <c r="L10" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>289.37099999999998</v>
       </c>
       <c r="M10" s="3">
         <f t="shared" si="1"/>
@@ -1425,7 +1489,9 @@
       <c r="G11" s="3">
         <v>105.238</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3">
+        <v>123.63</v>
+      </c>
       <c r="I11" s="3">
         <v>83.605000000000004</v>
       </c>
@@ -1433,7 +1499,9 @@
       <c r="K11" s="3">
         <v>87.32</v>
       </c>
-      <c r="L11" s="3"/>
+      <c r="L11" s="3">
+        <v>81.739999999999995</v>
+      </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -1510,7 +1578,9 @@
       <c r="G12" s="3">
         <v>0.79800000000000004</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3">
+        <v>-2.8929999999999998</v>
+      </c>
       <c r="I12" s="3">
         <v>1.0569999999999999</v>
       </c>
@@ -1518,7 +1588,9 @@
       <c r="K12" s="3">
         <v>4.9710000000000001</v>
       </c>
-      <c r="L12" s="3"/>
+      <c r="L12" s="3">
+        <v>8.141</v>
+      </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
@@ -1608,7 +1680,7 @@
       </c>
       <c r="H13" s="3">
         <f t="shared" si="2"/>
-        <v>862.2</v>
+        <v>141.24700000000004</v>
       </c>
       <c r="I13" s="3">
         <f>+I10-SUM(I11:I12)</f>
@@ -1624,7 +1696,7 @@
       </c>
       <c r="L13" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>199.48999999999998</v>
       </c>
       <c r="M13" s="3">
         <f t="shared" si="3"/>
@@ -1708,7 +1780,9 @@
       <c r="G14" s="3">
         <v>22.725999999999999</v>
       </c>
-      <c r="H14" s="3"/>
+      <c r="H14" s="3">
+        <v>24.271999999999998</v>
+      </c>
       <c r="I14" s="3">
         <v>30.216999999999999</v>
       </c>
@@ -1716,7 +1790,9 @@
       <c r="K14" s="3">
         <v>29.864000000000001</v>
       </c>
-      <c r="L14" s="3"/>
+      <c r="L14" s="3">
+        <v>31.992000000000001</v>
+      </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -1806,7 +1882,7 @@
       </c>
       <c r="H15" s="3">
         <f t="shared" si="4"/>
-        <v>862.2</v>
+        <v>116.97500000000005</v>
       </c>
       <c r="I15" s="3">
         <f>+I13-I14</f>
@@ -1822,7 +1898,7 @@
       </c>
       <c r="L15" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>167.49799999999999</v>
       </c>
       <c r="M15" s="3">
         <f t="shared" si="5"/>
@@ -1906,7 +1982,9 @@
       <c r="G16" s="3">
         <v>3.7040000000000002</v>
       </c>
-      <c r="H16" s="3"/>
+      <c r="H16" s="3">
+        <v>58.536999999999999</v>
+      </c>
       <c r="I16" s="3">
         <v>31.254000000000001</v>
       </c>
@@ -1914,7 +1992,9 @@
       <c r="K16" s="3">
         <v>15.1</v>
       </c>
-      <c r="L16" s="3"/>
+      <c r="L16" s="3">
+        <v>29.573</v>
+      </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -2004,7 +2084,7 @@
       </c>
       <c r="H17" s="3">
         <f t="shared" si="6"/>
-        <v>862.2</v>
+        <v>58.438000000000052</v>
       </c>
       <c r="I17" s="3">
         <f>+I15-I16</f>
@@ -2020,7 +2100,7 @@
       </c>
       <c r="L17" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>137.92499999999998</v>
       </c>
       <c r="M17" s="3">
         <f t="shared" si="7"/>
@@ -2189,9 +2269,9 @@
         <f t="shared" si="8"/>
         <v>0.46554856578114207</v>
       </c>
-      <c r="H19" s="7" t="e">
+      <c r="H19" s="7">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>0.34783488586649242</v>
       </c>
       <c r="I19" s="7">
         <f t="shared" si="8"/>
@@ -2205,9 +2285,9 @@
         <f t="shared" ref="K19" si="9">+K17/K20</f>
         <v>0.55757695473251034</v>
       </c>
-      <c r="L19" s="7" t="e">
+      <c r="L19" s="7">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>0.9148525490508217</v>
       </c>
       <c r="M19" s="7" t="e">
         <f t="shared" si="8"/>
@@ -2291,7 +2371,9 @@
       <c r="G20" s="3">
         <v>168.977</v>
       </c>
-      <c r="H20" s="3"/>
+      <c r="H20" s="3">
+        <v>168.005</v>
+      </c>
       <c r="I20" s="3">
         <v>160.68199999999999</v>
       </c>
@@ -2299,7 +2381,9 @@
       <c r="K20" s="3">
         <v>151.875</v>
       </c>
-      <c r="L20" s="3"/>
+      <c r="L20" s="3">
+        <v>150.762</v>
+      </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
@@ -2438,18 +2522,45 @@
       <c r="BV21" s="3"/>
     </row>
     <row r="22" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="B22" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
+      <c r="G22" s="10" t="e">
+        <f t="shared" ref="G22:K22" si="10">+G3/C3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H22" s="10" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22" s="10">
+        <f t="shared" si="10"/>
+        <v>5.8973670069854878E-2</v>
+      </c>
+      <c r="J22" s="10" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K22" s="10">
+        <f t="shared" si="10"/>
+        <v>9.3396385745651012E-2</v>
+      </c>
+      <c r="L22" s="10">
+        <f>+L3/H3-1</f>
+        <v>0.11636116768499671</v>
+      </c>
+      <c r="M22" s="10">
+        <f t="shared" ref="M22:N22" si="11">+M3/I3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="N22" s="10" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
@@ -2512,18 +2623,45 @@
       <c r="BV22" s="3"/>
     </row>
     <row r="23" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="B23" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
+      <c r="G23" s="10" t="e">
+        <f t="shared" ref="G23:K23" si="12">+G4/C4-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H23" s="10" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I23" s="10">
+        <f t="shared" si="12"/>
+        <v>-0.18087649402390438</v>
+      </c>
+      <c r="J23" s="10" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K23" s="10">
+        <f t="shared" si="12"/>
+        <v>-0.37994214079074262</v>
+      </c>
+      <c r="L23" s="10">
+        <f>+L4/H4-1</f>
+        <v>-0.23328025477707004</v>
+      </c>
+      <c r="M23" s="10">
+        <f t="shared" ref="M23:N23" si="13">+M4/I4-1</f>
+        <v>-1</v>
+      </c>
+      <c r="N23" s="10" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
@@ -2586,18 +2724,45 @@
       <c r="BV23" s="3"/>
     </row>
     <row r="24" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="B24" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
+      <c r="G24" s="10" t="e">
+        <f t="shared" ref="G24:K24" si="14">+G8/C8-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H24" s="10">
+        <f t="shared" si="14"/>
+        <v>2.5940028557829731E-2</v>
+      </c>
+      <c r="I24" s="10">
+        <f t="shared" si="14"/>
+        <v>2.4376337077437693E-2</v>
+      </c>
+      <c r="J24" s="10">
+        <f t="shared" si="14"/>
+        <v>4.9571994378433626E-2</v>
+      </c>
+      <c r="K24" s="10">
+        <f t="shared" si="14"/>
+        <v>2.2817032578514418E-2</v>
+      </c>
+      <c r="L24" s="10">
+        <f>+L8/H8-1</f>
+        <v>6.529807469264659E-2</v>
+      </c>
+      <c r="M24" s="10">
+        <f t="shared" ref="M24:N24" si="15">+M8/I8-1</f>
+        <v>-1</v>
+      </c>
+      <c r="N24" s="10">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
@@ -2660,18 +2825,57 @@
       <c r="BV24" s="3"/>
     </row>
     <row r="25" spans="2:74" x14ac:dyDescent="0.2">
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
+      <c r="B25" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="10" t="e">
+        <f t="shared" ref="C25:L25" si="16">+C10/C8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D25" s="10">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E25" s="10">
+        <f t="shared" si="16"/>
+        <v>0.27501635243550698</v>
+      </c>
+      <c r="F25" s="10">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="G25" s="10">
+        <f t="shared" si="16"/>
+        <v>0.30344095108336355</v>
+      </c>
+      <c r="H25" s="10">
+        <f t="shared" si="16"/>
+        <v>0.30385525400139179</v>
+      </c>
+      <c r="I25" s="10">
+        <f t="shared" si="16"/>
+        <v>0.31153083920431462</v>
+      </c>
+      <c r="J25" s="10">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="K25" s="10">
+        <f t="shared" si="16"/>
+        <v>0.31185293224968808</v>
+      </c>
+      <c r="L25" s="10">
+        <f>+L10/L8</f>
+        <v>0.3150473598258029</v>
+      </c>
+      <c r="M25" s="10" t="e">
+        <f t="shared" ref="M25:N25" si="17">+M10/M8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N25" s="10" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
@@ -2734,18 +2938,57 @@
       <c r="BV25" s="3"/>
     </row>
     <row r="26" spans="2:74" x14ac:dyDescent="0.2">
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
+      <c r="B26" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="10" t="e">
+        <f t="shared" ref="C26:L26" si="18">+C13/C8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="18"/>
+        <v>0.17820188734120318</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G26" s="10">
+        <f t="shared" si="18"/>
+        <v>0.15104570879970569</v>
+      </c>
+      <c r="H26" s="10">
+        <f t="shared" si="18"/>
+        <v>0.16382161911389473</v>
+      </c>
+      <c r="I26" s="10">
+        <f t="shared" si="18"/>
+        <v>0.21652306235172916</v>
+      </c>
+      <c r="J26" s="10">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="K26" s="10">
+        <f t="shared" si="18"/>
+        <v>0.18217100012365248</v>
+      </c>
+      <c r="L26" s="10">
+        <f>+L13/L8</f>
+        <v>0.21719107240065322</v>
+      </c>
+      <c r="M26" s="10" t="e">
+        <f t="shared" ref="M26:N26" si="19">+M13/M8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N26" s="10" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
@@ -2808,18 +3051,57 @@
       <c r="BV26" s="3"/>
     </row>
     <row r="27" spans="2:74" x14ac:dyDescent="0.2">
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
+      <c r="B27" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="10" t="e">
+        <f t="shared" ref="C27:L27" si="20">+C16/C15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D27" s="10">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="10">
+        <f t="shared" si="20"/>
+        <v>5.141133536903255E-2</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="10">
+        <f t="shared" si="20"/>
+        <v>4.4967282174551704E-2</v>
+      </c>
+      <c r="H27" s="10">
+        <f t="shared" si="20"/>
+        <v>0.50042316734344927</v>
+      </c>
+      <c r="I27" s="10">
+        <f t="shared" si="20"/>
+        <v>0.19206282876948041</v>
+      </c>
+      <c r="J27" s="10">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="10">
+        <f t="shared" si="20"/>
+        <v>0.15132989918021283</v>
+      </c>
+      <c r="L27" s="10">
+        <f>+L16/L15</f>
+        <v>0.17655733202784513</v>
+      </c>
+      <c r="M27" s="10" t="e">
+        <f t="shared" ref="M27:N27" si="21">+M16/M15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N27" s="10" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>

--- a/GIL.xlsx
+++ b/GIL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617C68D5-311D-4E64-BE04-CAB6FF8F083C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4054B1B3-E34E-41CE-B7F3-E8C61ABEB2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{8FF81416-71A4-47E4-A621-F1E8D8B5CE92}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{8FF81416-71A4-47E4-A621-F1E8D8B5CE92}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -202,13 +202,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -271,25 +277,26 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -628,7 +635,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{274EE32F-57FA-4DDA-8E39-E87CCA06F538}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0"/>
+    <sheetView topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5:J6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -649,7 +658,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="2">
-        <v>76.81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -657,10 +666,10 @@
         <v>5</v>
       </c>
       <c r="I3" s="3">
-        <v>150.762</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>43</v>
+        <v>149.22999999999999</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -672,7 +681,7 @@
       </c>
       <c r="I4" s="3">
         <f>+I2*I3</f>
-        <v>11580.02922</v>
+        <v>8953.7999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -683,10 +692,10 @@
         <v>7</v>
       </c>
       <c r="I5" s="3">
-        <v>86.016000000000005</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>43</v>
+        <v>112.633</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -694,10 +703,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="3">
-        <v>1856.34</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>43</v>
+        <f>1304.22+450</f>
+        <v>1754.22</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -706,7 +716,7 @@
       </c>
       <c r="I7" s="3">
         <f>+I4+I6-I5</f>
-        <v>13350.353220000001</v>
+        <v>10595.386999999999</v>
       </c>
     </row>
   </sheetData>
@@ -721,11 +731,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0151822-DCFA-4201-859E-6001F7813102}">
   <dimension ref="A1:BV185"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L20" sqref="L20"/>
+      <selection pane="bottomRight" activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -822,6 +832,9 @@
       <c r="L3" s="8">
         <v>822.2</v>
       </c>
+      <c r="M3" s="2">
+        <v>830.6</v>
+      </c>
     </row>
     <row r="4" spans="1:74" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
@@ -849,7 +862,9 @@
       <c r="L4" s="3">
         <v>96.3</v>
       </c>
-      <c r="M4" s="3"/>
+      <c r="M4" s="3">
+        <v>80</v>
+      </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -938,7 +953,9 @@
       <c r="L5" s="3">
         <v>825.6</v>
       </c>
-      <c r="M5" s="3"/>
+      <c r="M5" s="3">
+        <v>819.5</v>
+      </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
@@ -1027,7 +1044,9 @@
       <c r="L6" s="3">
         <v>32</v>
       </c>
-      <c r="M6" s="3"/>
+      <c r="M6" s="3">
+        <v>30.8</v>
+      </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
@@ -1116,7 +1135,9 @@
       <c r="L7" s="3">
         <v>60.9</v>
       </c>
-      <c r="M7" s="3"/>
+      <c r="M7" s="3">
+        <v>60.3</v>
+      </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
@@ -1211,7 +1232,9 @@
       <c r="L8" s="6">
         <v>918.5</v>
       </c>
-      <c r="M8" s="6"/>
+      <c r="M8" s="6">
+        <v>910.6</v>
+      </c>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="3"/>
@@ -1300,7 +1323,9 @@
       <c r="L9" s="3">
         <v>629.12900000000002</v>
       </c>
-      <c r="M9" s="3"/>
+      <c r="M9" s="3">
+        <v>603.97</v>
+      </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
@@ -1409,7 +1434,7 @@
       </c>
       <c r="M10" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>306.63</v>
       </c>
       <c r="N10" s="3">
         <f t="shared" si="1"/>
@@ -1502,7 +1527,9 @@
       <c r="L11" s="3">
         <v>81.739999999999995</v>
       </c>
-      <c r="M11" s="3"/>
+      <c r="M11" s="3">
+        <v>95.26</v>
+      </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
@@ -1591,7 +1618,9 @@
       <c r="L12" s="3">
         <v>8.141</v>
       </c>
-      <c r="M12" s="3"/>
+      <c r="M12" s="3">
+        <v>19.231999999999999</v>
+      </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -1700,7 +1729,7 @@
       </c>
       <c r="M13" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>192.13799999999998</v>
       </c>
       <c r="N13" s="3">
         <f t="shared" si="3"/>
@@ -1793,7 +1822,9 @@
       <c r="L14" s="3">
         <v>31.992000000000001</v>
       </c>
-      <c r="M14" s="3"/>
+      <c r="M14" s="3">
+        <v>43.707999999999998</v>
+      </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
@@ -1902,7 +1933,7 @@
       </c>
       <c r="M15" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>148.42999999999998</v>
       </c>
       <c r="N15" s="3">
         <f t="shared" si="5"/>
@@ -1995,7 +2026,9 @@
       <c r="L16" s="3">
         <v>29.573</v>
       </c>
-      <c r="M16" s="3"/>
+      <c r="M16" s="3">
+        <v>28.242000000000001</v>
+      </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
@@ -2058,7 +2091,7 @@
       <c r="BU16" s="3"/>
       <c r="BV16" s="3"/>
     </row>
-    <row r="17" spans="2:74" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:74" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>40</v>
       </c>
@@ -2104,7 +2137,7 @@
       </c>
       <c r="M17" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>120.18799999999997</v>
       </c>
       <c r="N17" s="3">
         <f t="shared" si="7"/>
@@ -2171,7 +2204,7 @@
       <c r="BU17" s="3"/>
       <c r="BV17" s="3"/>
     </row>
-    <row r="18" spans="2:74" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:74" x14ac:dyDescent="0.2">
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -2245,7 +2278,7 @@
       <c r="BU18" s="3"/>
       <c r="BV18" s="3"/>
     </row>
-    <row r="19" spans="2:74" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:74" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
@@ -2289,9 +2322,9 @@
         <f t="shared" si="8"/>
         <v>0.9148525490508217</v>
       </c>
-      <c r="M19" s="7" t="e">
+      <c r="M19" s="7">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>0.80538765663740519</v>
       </c>
       <c r="N19" s="7" t="e">
         <f t="shared" si="8"/>
@@ -2358,7 +2391,7 @@
       <c r="BU19" s="3"/>
       <c r="BV19" s="3"/>
     </row>
-    <row r="20" spans="2:74" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:74" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>5</v>
       </c>
@@ -2384,7 +2417,9 @@
       <c r="L20" s="3">
         <v>150.762</v>
       </c>
-      <c r="M20" s="3"/>
+      <c r="M20" s="3">
+        <v>149.22999999999999</v>
+      </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
@@ -2447,7 +2482,7 @@
       <c r="BU20" s="3"/>
       <c r="BV20" s="3"/>
     </row>
-    <row r="21" spans="2:74" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:74" x14ac:dyDescent="0.2">
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -2521,7 +2556,7 @@
       <c r="BU21" s="3"/>
       <c r="BV21" s="3"/>
     </row>
-    <row r="22" spans="2:74" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:74" x14ac:dyDescent="0.2">
       <c r="B22" s="8" t="s">
         <v>46</v>
       </c>
@@ -2529,35 +2564,35 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="10" t="e">
+      <c r="G22" s="9" t="e">
         <f t="shared" ref="G22:K22" si="10">+G3/C3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="10" t="e">
+      <c r="H22" s="9" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="9">
         <f t="shared" si="10"/>
         <v>5.8973670069854878E-2</v>
       </c>
-      <c r="J22" s="10" t="e">
+      <c r="J22" s="9" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K22" s="9">
         <f t="shared" si="10"/>
         <v>9.3396385745651012E-2</v>
       </c>
-      <c r="L22" s="10">
+      <c r="L22" s="9">
         <f>+L3/H3-1</f>
         <v>0.11636116768499671</v>
       </c>
-      <c r="M22" s="10">
+      <c r="M22" s="9">
         <f t="shared" ref="M22:N22" si="11">+M3/I3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="N22" s="10" t="e">
+        <v>5.3659774197640564E-2</v>
+      </c>
+      <c r="N22" s="9" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
@@ -2622,7 +2657,7 @@
       <c r="BU22" s="3"/>
       <c r="BV22" s="3"/>
     </row>
-    <row r="23" spans="2:74" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:74" x14ac:dyDescent="0.2">
       <c r="B23" s="8" t="s">
         <v>47</v>
       </c>
@@ -2630,35 +2665,35 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="10" t="e">
+      <c r="G23" s="9" t="e">
         <f t="shared" ref="G23:K23" si="12">+G4/C4-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="10" t="e">
+      <c r="H23" s="9" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="9">
         <f t="shared" si="12"/>
         <v>-0.18087649402390438</v>
       </c>
-      <c r="J23" s="10" t="e">
+      <c r="J23" s="9" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K23" s="10">
+      <c r="K23" s="9">
         <f t="shared" si="12"/>
         <v>-0.37994214079074262</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23" s="9">
         <f>+L4/H4-1</f>
         <v>-0.23328025477707004</v>
       </c>
-      <c r="M23" s="10">
+      <c r="M23" s="9">
         <f t="shared" ref="M23:N23" si="13">+M4/I4-1</f>
-        <v>-1</v>
-      </c>
-      <c r="N23" s="10" t="e">
+        <v>-0.22178988326848248</v>
+      </c>
+      <c r="N23" s="9" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
@@ -2723,14 +2758,15 @@
       <c r="BU23" s="3"/>
       <c r="BV23" s="3"/>
     </row>
-    <row r="24" spans="2:74" x14ac:dyDescent="0.2">
-      <c r="B24" s="8" t="s">
+    <row r="24" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
       <c r="G24" s="10" t="e">
         <f t="shared" ref="G24:K24" si="14">+G8/C8-1</f>
         <v>#DIV/0!</v>
@@ -2757,122 +2793,122 @@
       </c>
       <c r="M24" s="10">
         <f t="shared" ref="M24:N24" si="15">+M8/I8-1</f>
-        <v>-1</v>
+        <v>2.1876185324753772E-2</v>
       </c>
       <c r="N24" s="10">
         <f t="shared" si="15"/>
         <v>-1</v>
       </c>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
-      <c r="AD24" s="3"/>
-      <c r="AE24" s="3"/>
-      <c r="AF24" s="3"/>
-      <c r="AG24" s="3"/>
-      <c r="AH24" s="3"/>
-      <c r="AI24" s="3"/>
-      <c r="AJ24" s="3"/>
-      <c r="AK24" s="3"/>
-      <c r="AL24" s="3"/>
-      <c r="AM24" s="3"/>
-      <c r="AN24" s="3"/>
-      <c r="AO24" s="3"/>
-      <c r="AP24" s="3"/>
-      <c r="AQ24" s="3"/>
-      <c r="AR24" s="3"/>
-      <c r="AS24" s="3"/>
-      <c r="AT24" s="3"/>
-      <c r="AU24" s="3"/>
-      <c r="AV24" s="3"/>
-      <c r="AW24" s="3"/>
-      <c r="AX24" s="3"/>
-      <c r="AY24" s="3"/>
-      <c r="AZ24" s="3"/>
-      <c r="BA24" s="3"/>
-      <c r="BB24" s="3"/>
-      <c r="BC24" s="3"/>
-      <c r="BD24" s="3"/>
-      <c r="BE24" s="3"/>
-      <c r="BF24" s="3"/>
-      <c r="BG24" s="3"/>
-      <c r="BH24" s="3"/>
-      <c r="BI24" s="3"/>
-      <c r="BJ24" s="3"/>
-      <c r="BK24" s="3"/>
-      <c r="BL24" s="3"/>
-      <c r="BM24" s="3"/>
-      <c r="BN24" s="3"/>
-      <c r="BO24" s="3"/>
-      <c r="BP24" s="3"/>
-      <c r="BQ24" s="3"/>
-      <c r="BR24" s="3"/>
-      <c r="BS24" s="3"/>
-      <c r="BT24" s="3"/>
-      <c r="BU24" s="3"/>
-      <c r="BV24" s="3"/>
-    </row>
-    <row r="25" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="6"/>
+      <c r="AF24" s="6"/>
+      <c r="AG24" s="6"/>
+      <c r="AH24" s="6"/>
+      <c r="AI24" s="6"/>
+      <c r="AJ24" s="6"/>
+      <c r="AK24" s="6"/>
+      <c r="AL24" s="6"/>
+      <c r="AM24" s="6"/>
+      <c r="AN24" s="6"/>
+      <c r="AO24" s="6"/>
+      <c r="AP24" s="6"/>
+      <c r="AQ24" s="6"/>
+      <c r="AR24" s="6"/>
+      <c r="AS24" s="6"/>
+      <c r="AT24" s="6"/>
+      <c r="AU24" s="6"/>
+      <c r="AV24" s="6"/>
+      <c r="AW24" s="6"/>
+      <c r="AX24" s="6"/>
+      <c r="AY24" s="6"/>
+      <c r="AZ24" s="6"/>
+      <c r="BA24" s="6"/>
+      <c r="BB24" s="6"/>
+      <c r="BC24" s="6"/>
+      <c r="BD24" s="6"/>
+      <c r="BE24" s="6"/>
+      <c r="BF24" s="6"/>
+      <c r="BG24" s="6"/>
+      <c r="BH24" s="6"/>
+      <c r="BI24" s="6"/>
+      <c r="BJ24" s="6"/>
+      <c r="BK24" s="6"/>
+      <c r="BL24" s="6"/>
+      <c r="BM24" s="6"/>
+      <c r="BN24" s="6"/>
+      <c r="BO24" s="6"/>
+      <c r="BP24" s="6"/>
+      <c r="BQ24" s="6"/>
+      <c r="BR24" s="6"/>
+      <c r="BS24" s="6"/>
+      <c r="BT24" s="6"/>
+      <c r="BU24" s="6"/>
+      <c r="BV24" s="6"/>
+    </row>
+    <row r="25" spans="1:74" x14ac:dyDescent="0.2">
       <c r="B25" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="10" t="e">
-        <f t="shared" ref="C25:L25" si="16">+C10/C8</f>
+      <c r="C25" s="9" t="e">
+        <f t="shared" ref="C25:K25" si="16">+C10/C8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="9">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="9">
         <f t="shared" si="16"/>
         <v>0.27501635243550698</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="9">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="9">
         <f t="shared" si="16"/>
         <v>0.30344095108336355</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="9">
         <f t="shared" si="16"/>
         <v>0.30385525400139179</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="9">
         <f t="shared" si="16"/>
         <v>0.31153083920431462</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="9">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="K25" s="10">
+      <c r="K25" s="9">
         <f t="shared" si="16"/>
         <v>0.31185293224968808</v>
       </c>
-      <c r="L25" s="10">
+      <c r="L25" s="9">
         <f>+L10/L8</f>
         <v>0.3150473598258029</v>
       </c>
-      <c r="M25" s="10" t="e">
+      <c r="M25" s="9">
         <f t="shared" ref="M25:N25" si="17">+M10/M8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N25" s="10" t="e">
+        <v>0.33673402152426968</v>
+      </c>
+      <c r="N25" s="9" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
@@ -2937,55 +2973,55 @@
       <c r="BU25" s="3"/>
       <c r="BV25" s="3"/>
     </row>
-    <row r="26" spans="2:74" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:74" x14ac:dyDescent="0.2">
       <c r="B26" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="10" t="e">
-        <f t="shared" ref="C26:L26" si="18">+C13/C8</f>
+      <c r="C26" s="9" t="e">
+        <f t="shared" ref="C26:K26" si="18">+C13/C8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="9">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="9">
         <f t="shared" si="18"/>
         <v>0.17820188734120318</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="9">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="9">
         <f t="shared" si="18"/>
         <v>0.15104570879970569</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="9">
         <f t="shared" si="18"/>
         <v>0.16382161911389473</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="9">
         <f t="shared" si="18"/>
         <v>0.21652306235172916</v>
       </c>
-      <c r="J26" s="10">
+      <c r="J26" s="9">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="K26" s="10">
+      <c r="K26" s="9">
         <f t="shared" si="18"/>
         <v>0.18217100012365248</v>
       </c>
-      <c r="L26" s="10">
+      <c r="L26" s="9">
         <f>+L13/L8</f>
         <v>0.21719107240065322</v>
       </c>
-      <c r="M26" s="10" t="e">
+      <c r="M26" s="9">
         <f t="shared" ref="M26:N26" si="19">+M13/M8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N26" s="10" t="e">
+        <v>0.21100153744783656</v>
+      </c>
+      <c r="N26" s="9" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
@@ -3050,55 +3086,55 @@
       <c r="BU26" s="3"/>
       <c r="BV26" s="3"/>
     </row>
-    <row r="27" spans="2:74" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:74" x14ac:dyDescent="0.2">
       <c r="B27" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="10" t="e">
-        <f t="shared" ref="C27:L27" si="20">+C16/C15</f>
+      <c r="C27" s="9" t="e">
+        <f t="shared" ref="C27:K27" si="20">+C16/C15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="9">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="9">
         <f t="shared" si="20"/>
         <v>5.141133536903255E-2</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="9">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="9">
         <f t="shared" si="20"/>
         <v>4.4967282174551704E-2</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="9">
         <f t="shared" si="20"/>
         <v>0.50042316734344927</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I27" s="9">
         <f t="shared" si="20"/>
         <v>0.19206282876948041</v>
       </c>
-      <c r="J27" s="10">
+      <c r="J27" s="9">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="K27" s="10">
+      <c r="K27" s="9">
         <f t="shared" si="20"/>
         <v>0.15132989918021283</v>
       </c>
-      <c r="L27" s="10">
+      <c r="L27" s="9">
         <f>+L16/L15</f>
         <v>0.17655733202784513</v>
       </c>
-      <c r="M27" s="10" t="e">
+      <c r="M27" s="9">
         <f t="shared" ref="M27:N27" si="21">+M16/M15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N27" s="10" t="e">
+        <v>0.19027150845516408</v>
+      </c>
+      <c r="N27" s="9" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -3163,7 +3199,7 @@
       <c r="BU27" s="3"/>
       <c r="BV27" s="3"/>
     </row>
-    <row r="28" spans="2:74" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:74" x14ac:dyDescent="0.2">
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -3237,7 +3273,7 @@
       <c r="BU28" s="3"/>
       <c r="BV28" s="3"/>
     </row>
-    <row r="29" spans="2:74" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:74" x14ac:dyDescent="0.2">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -3311,7 +3347,7 @@
       <c r="BU29" s="3"/>
       <c r="BV29" s="3"/>
     </row>
-    <row r="30" spans="2:74" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:74" x14ac:dyDescent="0.2">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -3385,7 +3421,7 @@
       <c r="BU30" s="3"/>
       <c r="BV30" s="3"/>
     </row>
-    <row r="31" spans="2:74" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:74" x14ac:dyDescent="0.2">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -3459,7 +3495,7 @@
       <c r="BU31" s="3"/>
       <c r="BV31" s="3"/>
     </row>
-    <row r="32" spans="2:74" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:74" x14ac:dyDescent="0.2">
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
